--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D340992-9A2B-4EDB-B9AB-54475DA01C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D1950-36BF-49B8-A4B1-1122CE33B5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -377,20 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　モードセレクト画面</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　キャラセレクト画面</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　オプション画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -565,13 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　―　待機アニメーション(物理)</t>
-    <rPh sb="13" eb="15">
-      <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　―　生成/破棄</t>
     <rPh sb="3" eb="5">
       <t>セイセイ</t>
@@ -604,21 +583,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・外部ファイル</t>
-    <rPh sb="1" eb="3">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　設定</t>
+    <t>　―　球とマップの当たり判定</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　攻撃</t>
     <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　成績</t>
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　ステージセレクト画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　―　固有行動</t>
+    <rPh sb="3" eb="7">
+      <t>コユウコウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了コスト</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -719,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -731,6 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1011,1094 +1020,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>142.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="9">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>45646</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>45308</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>45325</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="B20" s="9">
         <v>0.5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B29" s="9">
         <v>0.5</v>
       </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B34" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="B36" s="9">
         <v>0.5</v>
       </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="9"/>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="9">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="9"/>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="9">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="9"/>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="9">
         <v>0.5</v>
       </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="9"/>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B41" s="9">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="9"/>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B42" s="9">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="9">
+        <v>6</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="9">
+        <v>12</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="9">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="9">
+      <c r="C69" s="9"/>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="9">
         <v>0.5</v>
       </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="9">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="9">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="9">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="C71" s="9"/>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B72" s="9">
         <v>0.5</v>
       </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="C72" s="9"/>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B73" s="9">
         <v>0.5</v>
       </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="C73" s="9"/>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="9" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B74" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="B77" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>71</v>
-      </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B78" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B79" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B82" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="9">
+        <v>3</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="9">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="9">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B85" s="9">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="9"/>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B87" s="9">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B88" s="9">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B89" s="9">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="9"/>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B92" s="9">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="C92" s="9"/>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B93" s="9">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B94" s="9">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="9" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B95" s="9">
         <v>2</v>
       </c>
-      <c r="C95" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" s="9">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="9">
-        <v>4</v>
-      </c>
-      <c r="C99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="9">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="9">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>71</v>
+      <c r="C95" s="9"/>
+      <c r="D95" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2139,6 +2179,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2373,16 +2422,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2399,12 +2447,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D1950-36BF-49B8-A4B1-1122CE33B5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B8C6D-6C91-4916-8C33-CFE7612020A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -84,16 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の日数</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・アルファ素材集め</t>
     <rPh sb="5" eb="7">
       <t>ソザイ</t>
@@ -620,6 +610,75 @@
     <t>完了コスト</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の日数(土日除く)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の日付</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り日数(土日除く)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日の消費コスト</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費コスト / 日数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -628,6 +687,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -653,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +777,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -727,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -740,6 +815,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1020,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1034,14 +1114,16 @@
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1058,10 +1140,11 @@
         <v>4</v>
       </c>
       <c r="G2">
+        <f>SUM(B3:B300)</f>
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1070,16 +1153,17 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3">
+        <f>SUMIF(D3:D300,"完了",B3:B300)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1088,767 +1172,822 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <f ca="1">NETWORKDAYS(G5,G6)</f>
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="16">
+        <f ca="1" xml:space="preserve"> G3 / G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="14">
+        <f>DATE(2024,9,30)</f>
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="14">
+        <f ca="1">TODAY()</f>
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="4">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="4">
-        <v>45308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
+      </c>
+      <c r="H9" s="15">
+        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
+        <v>44</v>
+      </c>
+      <c r="I9" s="16">
+        <f ca="1">($G$2 - $G$3) / H9</f>
+        <v>3.6136363636363638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4">
+        <f>DATE(2025,1,17)</f>
+        <v>45674</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
+        <v>64</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
+        <v>2.484375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <f>DATE(2025,2,3)</f>
+        <v>45691</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="9">
         <v>0.5</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="9">
         <v>0.5</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="9">
         <v>2</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9">
         <v>2</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9">
         <v>2</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="9">
         <v>0.5</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="9">
         <v>0.5</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9">
         <v>4</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="9">
         <v>0.5</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="9">
         <v>2</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="9">
         <v>2</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="9">
         <v>2</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="9">
         <v>0.5</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="9">
         <v>4</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="9">
         <v>6</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="9">
         <v>0.5</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="9">
         <v>2</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="9">
         <v>2</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="9">
         <v>1</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="9">
         <v>1</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="9">
         <v>2</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="9">
         <v>2</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="9">
         <v>2</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="9">
         <v>2</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="9">
         <v>12</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="9">
         <v>4</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1856,289 +1995,289 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="9">
         <v>0.5</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="9">
         <v>0.5</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="9">
         <v>0.5</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="9">
         <v>2</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="9">
         <v>2</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="9">
         <v>2</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="9">
         <v>3</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="9">
         <v>4</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" s="9">
         <v>2</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="9">
         <v>2</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="9">
         <v>3</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="9">
         <v>1</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" s="9">
         <v>1</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="9">
         <v>4</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="9">
         <v>3</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="9">
         <v>1</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="9">
         <v>4</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="9">
         <v>2</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B95" s="9">
         <v>2</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2179,15 +2318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2422,15 +2552,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2447,4 +2578,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B8C6D-6C91-4916-8C33-CFE7612020A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF254A-91AC-4103-A648-4754D0F25C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -679,6 +679,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1103,7 +1110,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1160,7 +1167,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1186,7 +1193,7 @@
       </c>
       <c r="I4" s="16">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0</v>
+        <v>0.44117647058823528</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1276,7 +1283,7 @@
       </c>
       <c r="I9" s="16">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.6136363636363638</v>
+        <v>3.4431818181818183</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1303,7 +1310,7 @@
       </c>
       <c r="I10" s="16">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.484375</v>
+        <v>2.3671875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1330,7 +1337,7 @@
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1440,7 +1447,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1452,7 +1459,7 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1878,7 +1885,7 @@
       </c>
       <c r="C60" s="9"/>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1890,7 +1897,7 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1902,7 +1909,7 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2318,6 +2325,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2552,16 +2568,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2578,12 +2593,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF254A-91AC-4103-A648-4754D0F25C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61734A70-FBAB-4EB3-A121-CDF896CCE43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2325,15 +2325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2568,15 +2559,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2593,4 +2585,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61734A70-FBAB-4EB3-A121-CDF896CCE43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E575C4-3377-4F30-A781-1353E90376CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="アルファ" sheetId="1" r:id="rId1"/>
-    <sheet name="ベータ" sheetId="2" r:id="rId2"/>
-    <sheet name="マスタ" sheetId="3" r:id="rId3"/>
+    <sheet name="日記" sheetId="4" r:id="rId1"/>
+    <sheet name="アルファ" sheetId="1" r:id="rId2"/>
+    <sheet name="ベータ" sheetId="2" r:id="rId3"/>
+    <sheet name="マスタ" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1106,10 +1107,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4">
+        <v>45587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -2294,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4416D-9062-4DAF-A047-57AB4A8BE771}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2309,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D2C22-999A-42D4-BD4F-8D4FC0E5041D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2325,6 +2351,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2559,16 +2594,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,12 +2619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E575C4-3377-4F30-A781-1353E90376CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF323B-B67C-49F7-89FC-8DCA74D45DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="3660" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -687,6 +687,53 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗コスト表の作成。コピペである程度済むとはいえタスク量がとんでもなさそう。</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廣本のコードを見てステートパターンを実装した。今後問題が出てくる可能性があるが、いったん実装はできた。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロモト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コンゴモンダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -820,7 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -1108,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1122,6 +1168,16 @@
     <row r="2" spans="2:2">
       <c r="B2" s="4">
         <v>45587</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1219,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1178,13 +1234,12 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
       <c r="D3" t="s">
         <v>68</v>
       </c>
@@ -1197,13 +1252,12 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
       <c r="D4" t="s">
         <v>68</v>
       </c>
@@ -1217,64 +1271,59 @@
       <c r="H4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
         <v>0.44117647058823528</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f ca="1">TODAY()</f>
         <v>45587</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
       <c r="D7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
@@ -1286,13 +1335,12 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9"/>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="D9" t="s">
         <v>68</v>
       </c>
@@ -1303,23 +1351,22 @@
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
         <v>44</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
         <v>3.4431818181818183</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
@@ -1330,23 +1377,22 @@
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
         <v>64</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
         <v>2.3671875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
         <v>68</v>
       </c>
@@ -1357,958 +1403,861 @@
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
         <v>2.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>0.5</v>
       </c>
-      <c r="C20" s="9"/>
       <c r="D20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="9">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23">
+        <v>2</v>
+      </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9"/>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9"/>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9"/>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9"/>
+      <c r="B27">
+        <v>2</v>
+      </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9"/>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <v>0.5</v>
       </c>
-      <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9"/>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <v>0.5</v>
       </c>
-      <c r="C31" s="9"/>
       <c r="D31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="B32">
+        <v>1</v>
+      </c>
       <c r="D32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="9"/>
       <c r="D33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="9" t="s">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9"/>
+      <c r="B35">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="9" t="s">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36">
         <v>0.5</v>
       </c>
-      <c r="C36" s="9"/>
       <c r="D36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="9">
-        <v>2</v>
-      </c>
-      <c r="C37" s="9"/>
+      <c r="B37">
+        <v>2</v>
+      </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="9">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9"/>
+      <c r="B38">
+        <v>2</v>
+      </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="9" t="s">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="9">
-        <v>2</v>
-      </c>
-      <c r="C39" s="9"/>
+      <c r="B39">
+        <v>2</v>
+      </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="9" t="s">
+      <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40">
         <v>0.5</v>
       </c>
-      <c r="C40" s="9"/>
       <c r="D40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="9" t="s">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="9"/>
       <c r="D41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" s="9"/>
       <c r="D42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9"/>
+      <c r="B44">
+        <v>1</v>
+      </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="9" t="s">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9"/>
+      <c r="B45">
+        <v>1</v>
+      </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="9" t="s">
+      <c r="A46" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9"/>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
+      <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47">
         <v>0.5</v>
       </c>
-      <c r="C47" s="9"/>
       <c r="D47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="9" t="s">
+      <c r="A49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9"/>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
+      <c r="A50" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="9">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9"/>
+      <c r="B50">
+        <v>2</v>
+      </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="9" t="s">
+      <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="9">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9"/>
+      <c r="B51">
+        <v>2</v>
+      </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
+      <c r="A53" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9"/>
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="9" t="s">
+      <c r="A54" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9"/>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="A55" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9"/>
+      <c r="B55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
+      <c r="A57" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9"/>
+      <c r="B57">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9"/>
+      <c r="B58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="9">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9"/>
+      <c r="B60">
+        <v>2</v>
+      </c>
       <c r="D60" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="9" t="s">
+      <c r="A61" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="9">
-        <v>2</v>
-      </c>
-      <c r="C61" s="9"/>
+      <c r="B61">
+        <v>2</v>
+      </c>
       <c r="D61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="9" t="s">
+      <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="9">
-        <v>2</v>
-      </c>
-      <c r="C62" s="9"/>
+      <c r="B62">
+        <v>2</v>
+      </c>
       <c r="D62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="9" t="s">
+      <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9"/>
+      <c r="B63">
+        <v>1</v>
+      </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="9">
-        <v>2</v>
-      </c>
-      <c r="C64" s="9"/>
+      <c r="B64">
+        <v>2</v>
+      </c>
       <c r="D64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="9" t="s">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66">
         <v>12</v>
       </c>
-      <c r="C66" s="9"/>
       <c r="D66" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9" t="s">
+      <c r="A67" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9"/>
+      <c r="B67">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="9" t="s">
+      <c r="A68" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9"/>
+      <c r="B68">
+        <v>1</v>
+      </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="9" t="s">
+      <c r="A69" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69">
         <v>4</v>
       </c>
-      <c r="C69" s="9"/>
       <c r="D69" t="s">
         <v>68</v>
       </c>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9" t="s">
+      <c r="A71" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71">
         <v>0.5</v>
       </c>
-      <c r="C71" s="9"/>
       <c r="D71" t="s">
         <v>68</v>
       </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="9" t="s">
+      <c r="A72" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72">
         <v>0.5</v>
       </c>
-      <c r="C72" s="9"/>
       <c r="D72" t="s">
         <v>68</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="9" t="s">
+      <c r="A73" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73">
         <v>0.5</v>
       </c>
-      <c r="C73" s="9"/>
       <c r="D73" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="9" t="s">
+      <c r="A74" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="9">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9"/>
+      <c r="B74">
+        <v>2</v>
+      </c>
       <c r="D74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="9" t="s">
+      <c r="A76" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="9">
-        <v>2</v>
-      </c>
-      <c r="C76" s="9"/>
+      <c r="B76">
+        <v>2</v>
+      </c>
       <c r="D76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9" t="s">
+      <c r="A77" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" s="9"/>
+      <c r="B77">
+        <v>2</v>
+      </c>
       <c r="D77" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="9" t="s">
+      <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78">
         <v>3</v>
       </c>
-      <c r="C78" s="9"/>
       <c r="D78" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="9" t="s">
+      <c r="A79" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" s="9"/>
       <c r="D79" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="9" t="s">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="9">
-        <v>1</v>
-      </c>
-      <c r="C80" s="9"/>
+      <c r="B80">
+        <v>1</v>
+      </c>
       <c r="D80" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="9" t="s">
+      <c r="A81" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="9">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9"/>
+      <c r="B81">
+        <v>2</v>
+      </c>
       <c r="D81" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="9" t="s">
+      <c r="A82" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9"/>
+      <c r="B82">
+        <v>2</v>
+      </c>
       <c r="D82" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="9" t="s">
+      <c r="A83" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="9"/>
       <c r="D83" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="9" t="s">
+      <c r="A85" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="9">
-        <v>1</v>
-      </c>
-      <c r="C85" s="9"/>
+      <c r="B85">
+        <v>1</v>
+      </c>
       <c r="D85" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="9" t="s">
+      <c r="A86" t="s">
         <v>58</v>
       </c>
-      <c r="B86" s="9">
-        <v>1</v>
-      </c>
-      <c r="C86" s="9"/>
+      <c r="B86">
+        <v>1</v>
+      </c>
       <c r="D86" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="9" t="s">
+      <c r="A87" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="9">
-        <v>1</v>
-      </c>
-      <c r="C87" s="9"/>
+      <c r="B87">
+        <v>1</v>
+      </c>
       <c r="D87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="9" t="s">
+      <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88">
         <v>4</v>
       </c>
-      <c r="C88" s="9"/>
       <c r="D88" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="9" t="s">
+      <c r="A89" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" s="9"/>
       <c r="D89" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="9" t="s">
+      <c r="A91" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="9">
-        <v>1</v>
-      </c>
-      <c r="C91" s="9"/>
+      <c r="B91">
+        <v>1</v>
+      </c>
       <c r="D91" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="9" t="s">
+      <c r="A92" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="9">
-        <v>1</v>
-      </c>
-      <c r="C92" s="9"/>
+      <c r="B92">
+        <v>1</v>
+      </c>
       <c r="D92" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="9" t="s">
+      <c r="A93" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93">
         <v>4</v>
       </c>
-      <c r="C93" s="9"/>
       <c r="D93" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="9" t="s">
+      <c r="A94" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="9">
-        <v>2</v>
-      </c>
-      <c r="C94" s="9"/>
+      <c r="B94">
+        <v>2</v>
+      </c>
       <c r="D94" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9"/>
+      <c r="B95">
+        <v>2</v>
+      </c>
       <c r="D95" t="s">
         <v>68</v>
       </c>
@@ -2351,15 +2300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2594,15 +2534,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2619,4 +2560,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF323B-B67C-49F7-89FC-8DCA74D45DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DAFFC6-2738-436D-A2E5-FA4ACA86C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10125" yWindow="3660" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>廣本のコードを見てステートパターンを実装した。今後問題が出てくる可能性があるが、いったん実装はできた。</t>
+    <t>廣本のコードを見てステートパターンを実装した。今後問題が出てくる可能性があるけど。</t>
     <rPh sb="0" eb="2">
       <t>ヒロモト</t>
     </rPh>
@@ -731,9 +731,6 @@
     </rPh>
     <rPh sb="32" eb="35">
       <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1157,7 +1154,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1266,14 +1263,14 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.44117647058823528</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1303,7 +1300,7 @@
       </c>
       <c r="G6" s="13">
         <f ca="1">TODAY()</f>
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1353,11 +1350,11 @@
       </c>
       <c r="H9" s="14">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.4431818181818183</v>
+        <v>3.5232558139534884</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1379,11 +1376,11 @@
       </c>
       <c r="H10" s="14">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.3671875</v>
+        <v>2.4047619047619047</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1405,11 +1402,11 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.02</v>
+        <v>2.0472972972972974</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2300,6 +2297,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2534,16 +2540,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2560,12 +2565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DAFFC6-2738-436D-A2E5-FA4ACA86C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81903692-4374-4F8D-B082-2218228BD7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="3660" windowWidth="19200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -732,6 +732,17 @@
     <rPh sb="32" eb="35">
       <t>カノウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗7.5コスト</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1151,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1162,17 +1173,20 @@
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" s="4">
         <v>45587</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>104</v>
       </c>
@@ -1188,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1245,7 +1259,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1270,7 +1284,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.41666666666666669</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1354,7 +1368,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.5232558139534884</v>
+        <v>3.4651162790697674</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1380,7 +1394,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.4047619047619047</v>
+        <v>2.3650793650793651</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1406,7 +1420,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0472972972972974</v>
+        <v>2.0135135135135136</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1493,7 +1507,7 @@
         <v>0.5</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1832,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1843,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81903692-4374-4F8D-B082-2218228BD7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2027F0-AB9A-4BD5-A492-C52076E8EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2027F0-AB9A-4BD5-A492-C52076E8EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E1568-BA93-49D0-BFC2-714FA5711C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.55555555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.4651162790697674</v>
+        <v>3.3488372093023258</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.3650793650793651</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0135135135135136</v>
+        <v>1.9459459459459461</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E1568-BA93-49D0-BFC2-714FA5711C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11906030-A81C-4CE2-AFC9-A60ABEA29822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11906030-A81C-4CE2-AFC9-A60ABEA29822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D488B2-A9F5-4C96-AEB2-69CA68CA5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -743,6 +743,47 @@
   </si>
   <si>
     <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定やポーションを追加した。当たったかどうかはとれるようになったけど位置補正がめんどくさそう。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>イチホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージハンドルをゲームシーンで取得したうえでポーションに当たるとなぜかメモリが大量に残ったままになるバグが発生。理由不明。</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>リユウフメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1162,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1189,6 +1230,24 @@
     <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4">
+        <v>45588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
@@ -1277,14 +1336,14 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.83333333333333337</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1314,7 +1373,7 @@
       </c>
       <c r="G6" s="13">
         <f ca="1">TODAY()</f>
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1364,11 +1423,11 @@
       </c>
       <c r="H9" s="14">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.3488372093023258</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1390,11 +1449,11 @@
       </c>
       <c r="H10" s="14">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.2857142857142856</v>
+        <v>2.3225806451612905</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1416,11 +1475,11 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9459459459459461</v>
+        <v>1.9726027397260273</v>
       </c>
     </row>
     <row r="12" spans="1:9">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D488B2-A9F5-4C96-AEB2-69CA68CA5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89CA25D-7D7C-4C96-A212-B4F656AF6AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.78947368421052633</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.4285714285714284</v>
+        <v>3.3809523809523809</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.3225806451612905</v>
+        <v>2.2903225806451615</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9726027397260273</v>
+        <v>1.9452054794520548</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:7">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89CA25D-7D7C-4C96-A212-B4F656AF6AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B53BB-4BC4-46A0-B4EF-F755E58B603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.89473684210526316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.3809523809523809</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.2903225806451615</v>
+        <v>2.2580645161290325</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9452054794520548</v>
+        <v>1.9178082191780821</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B53BB-4BC4-46A0-B4EF-F755E58B603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C851161D-D833-4714-A93E-3255FA12A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C851161D-D833-4714-A93E-3255FA12A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027C98A-AA09-4890-ADF3-27FDF99B0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -691,99 +691,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進捗コスト表の作成。コピペである程度済むとはいえタスク量がとんでもなさそう。</t>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>廣本のコードを見てステートパターンを実装した。今後問題が出てくる可能性があるけど。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロモト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>コンゴモンダイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>カノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗7.5コスト</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たり判定やポーションを追加した。当たったかどうかはとれるようになったけど位置補正がめんどくさそう。</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>イチホセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージハンドルをゲームシーンで取得したうえでポーションに当たるとなぜかメモリが大量に残ったままになるバグが発生。理由不明。</t>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>タイリョウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>リユウフメイ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗コスト表の作成。コピペである程度済むとはいえタスク量がとんでもなさそう。
+廣本のコードを見てステートパターンを実装した。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定やポーションを追加した。当たったかどうかはとれるようになったけど位置補正がめんどくさそう。
+ステージハンドルをゲームシーンで取得したうえでポーションに当たるとなぜかメモリが大量に残ったままになるバグが発生。理由不明。
+Unityのアセットストアでよさそうなモデルを見つけて、fbxにしてみたけどどれも変になってしまって使えなさそう。よさげな敵のモデルを見つけるのに苦労しそう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計進捗</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウケイシンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの外部ファイル読み込み、Vec3型の改良、当たり判定の押出処理(カプセル同士、カプセルと球)の実装をした。カプセル同士の押出処理は完全にできてないけど明日にはできるはず。
+23日に確認したメモリバグは、ステージの外部ファイル読み込みを実装した時になくなったように感じたけど、今後制作を続けていくうえで何らかの障害として復活しそう。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -894,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -902,11 +851,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -923,6 +963,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1203,51 +1274,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="178.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="4">
+    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:12" ht="19.5" thickBot="1">
+      <c r="B2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="37.5">
+      <c r="B3" s="22">
         <v>45587</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="4">
+      <c r="C3" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SUM(C3,F2)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="56.25">
+      <c r="B4" s="23">
         <v>45588</v>
       </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="C4" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>108</v>
+      </c>
+      <c r="E4" s="21">
+        <f>SUM(C4,E3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="37.5">
+      <c r="B5" s="23">
+        <v>45589</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUM(C5,E4)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="23">
+        <v>45590</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="21">
+        <f>SUM(C6,E5)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="23">
+        <v>45591</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="21">
+        <f>SUM(C7,E6)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="23">
+        <v>45592</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="21">
+        <f>SUM(C8,E7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="23">
+        <v>45593</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="21">
+        <f>SUM(C9,E8)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="23">
+        <v>45594</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21">
+        <f>SUM(C10,E9)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="23">
+        <v>45595</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="21">
+        <f>SUM(C11,E10)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="23">
+        <v>45596</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21">
+        <f>SUM(C12,E11)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="23">
+        <v>45597</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="21">
+        <f>SUM(C13,E12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="23">
+        <v>45598</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="21">
+        <f>SUM(C14,E13)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="23">
+        <v>45599</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21">
+        <f>SUM(C15,E14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="23">
+        <v>45600</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="21">
+        <f>SUM(C16,E15)</f>
+        <v>19</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="23">
+        <v>45601</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="21">
+        <f>SUM(C17,E16)</f>
+        <v>19</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="23">
+        <v>45602</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="21">
+        <f>SUM(C18,E17)</f>
+        <v>19</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="23">
+        <v>45603</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="21">
+        <f>SUM(C19,E18)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="23">
+        <v>45604</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="21">
+        <f>SUM(C20,E19)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="23">
+        <v>45605</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="21">
+        <f>SUM(C21,E20)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="23">
+        <v>45606</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="21">
+        <f>SUM(C22,E21)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="23">
+        <v>45607</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="21">
+        <f>SUM(C23,E22)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="23">
+        <v>45608</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="21">
+        <f>SUM(C24,E23)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="23">
+        <v>45609</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="21">
+        <f>SUM(C25,E24)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="23">
+        <v>45610</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="21">
+        <f>SUM(C26,E25)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="23">
+        <v>45611</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="21">
+        <f>SUM(C27,E26)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="23">
+        <v>45612</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="21">
+        <f>SUM(C28,E27)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="23">
+        <v>45613</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="21">
+        <f>SUM(C29,E28)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="23">
+        <v>45614</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="21">
+        <f>SUM(C30,E29)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="23">
+        <v>45615</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="21">
+        <f>SUM(C31,E30)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="23">
+        <v>45616</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="21">
+        <f>SUM(C32,E31)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="23">
+        <v>45617</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="21">
+        <f>SUM(C33,E32)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="23">
+        <v>45618</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="21">
+        <f>SUM(C34,E33)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="23">
+        <v>45619</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="21">
+        <f>SUM(C35,E34)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="23">
+        <v>45620</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="21">
+        <f>SUM(C36,E35)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="23">
+        <v>45621</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="21">
+        <f>SUM(C37,E36)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="23">
+        <v>45622</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="21">
+        <f>SUM(C38,E37)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="23">
+        <v>45623</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="21">
+        <f>SUM(C39,E38)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="23">
+        <v>45624</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="21">
+        <f>SUM(C40,E39)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="23">
+        <v>45625</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="21">
+        <f>SUM(C41,E40)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="23">
+        <v>45626</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="21">
+        <f>SUM(C42,E41)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="23">
+        <v>45627</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="21">
+        <f>SUM(C43,E42)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="23">
+        <v>45628</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="21">
+        <f>SUM(C44,E43)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="23">
+        <v>45629</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="21">
+        <f>SUM(C45,E44)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="23">
+        <v>45630</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="21">
+        <f>SUM(C46,E45)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="23">
+        <v>45631</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="21">
+        <f>SUM(C47,E46)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="23">
+        <v>45632</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="21">
+        <f>SUM(C48,E47)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="23">
+        <v>45633</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="21">
+        <f>SUM(C49,E48)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="23">
+        <v>45634</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="21">
+        <f>SUM(C50,E49)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="23">
+        <v>45635</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="21">
+        <f>SUM(C51,E50)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="23">
+        <v>45636</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="21">
+        <f>SUM(C52,E51)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="23">
+        <v>45637</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="21">
+        <f>SUM(C53,E52)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="23">
+        <v>45638</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21">
+        <f>SUM(C54,E53)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="23">
+        <v>45639</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="21">
+        <f>SUM(C55,E54)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="23">
+        <v>45640</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="21">
+        <f>SUM(C56,E55)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="23">
+        <v>45641</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="21">
+        <f>SUM(C57,E56)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="23">
+        <v>45642</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="21">
+        <f>SUM(C58,E57)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="23">
+        <v>45643</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="21">
+        <f>SUM(C59,E58)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="23">
+        <v>45644</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="21">
+        <f>SUM(C60,E59)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="23">
+        <v>45645</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="21">
+        <f>SUM(C61,E60)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="23">
+        <v>45646</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="21">
+        <f>SUM(C62,E61)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="23">
+        <v>45647</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="21">
+        <f>SUM(C63,E62)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="23">
+        <v>45648</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="21">
+        <f>SUM(C64,E63)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="23">
+        <v>45649</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="21">
+        <f>SUM(C65,E64)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="23">
+        <v>45650</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="21">
+        <f>SUM(C66,E65)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="23">
+        <v>45651</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="21">
+        <f>SUM(C67,E66)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="23">
+        <v>45652</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="21">
+        <f>SUM(C68,E67)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="23">
+        <v>45653</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="21">
+        <f>SUM(C69,E68)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="23">
+        <v>45654</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="21">
+        <f>SUM(C70,E69)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="23">
+        <v>45655</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="21">
+        <f>SUM(C71,E70)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="23">
+        <v>45656</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="21">
+        <f>SUM(C72,E71)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="23">
+        <v>45657</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="21">
+        <f>SUM(C73,E72)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1336,14 +2199,14 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1373,7 +2236,7 @@
       </c>
       <c r="G6" s="13">
         <f ca="1">TODAY()</f>
-        <v>45589</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1423,11 +2286,11 @@
       </c>
       <c r="H9" s="14">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.3333333333333335</v>
+        <v>3.4146341463414633</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1449,11 +2312,11 @@
       </c>
       <c r="H10" s="14">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.2580645161290325</v>
+        <v>2.2950819672131146</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1475,11 +2338,11 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9178082191780821</v>
+        <v>1.9444444444444444</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1916,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2370,15 +3233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2613,15 +3467,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2638,4 +3493,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027C98A-AA09-4890-ADF3-27FDF99B0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD01208-569F-4AA4-8A07-44C89974E63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1328,7 +1328,7 @@
         <v>108</v>
       </c>
       <c r="E4" s="21">
-        <f>SUM(C4,E3)</f>
+        <f t="shared" ref="E4:E35" si="0">SUM(C4,E3)</f>
         <v>15</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="21">
-        <f>SUM(C5,E4)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="26"/>
       <c r="E6" s="21">
-        <f>SUM(C6,E5)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="26"/>
       <c r="E7" s="21">
-        <f>SUM(C7,E6)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="26"/>
       <c r="E8" s="21">
-        <f>SUM(C8,E7)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="26"/>
       <c r="E9" s="21">
-        <f>SUM(C9,E8)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="26"/>
       <c r="E10" s="21">
-        <f>SUM(C10,E9)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21">
-        <f>SUM(C11,E10)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="26"/>
       <c r="E12" s="21">
-        <f>SUM(C12,E11)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="26"/>
       <c r="E13" s="21">
-        <f>SUM(C13,E12)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="26"/>
       <c r="E14" s="21">
-        <f>SUM(C14,E13)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="C15" s="21"/>
       <c r="D15" s="26"/>
       <c r="E15" s="21">
-        <f>SUM(C15,E14)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="26"/>
       <c r="E16" s="21">
-        <f>SUM(C16,E15)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G16" s="16"/>
@@ -1481,7 +1481,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="26"/>
       <c r="E17" s="21">
-        <f>SUM(C17,E16)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G17" s="16"/>
@@ -1498,7 +1498,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="26"/>
       <c r="E18" s="21">
-        <f>SUM(C18,E17)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G18" s="16"/>
@@ -1515,7 +1515,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="26"/>
       <c r="E19" s="21">
-        <f>SUM(C19,E18)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="26"/>
       <c r="E20" s="21">
-        <f>SUM(C20,E19)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="26"/>
       <c r="E21" s="21">
-        <f>SUM(C21,E20)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       <c r="C22" s="21"/>
       <c r="D22" s="26"/>
       <c r="E22" s="21">
-        <f>SUM(C22,E21)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="26"/>
       <c r="E23" s="21">
-        <f>SUM(C23,E22)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="26"/>
       <c r="E24" s="21">
-        <f>SUM(C24,E23)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="26"/>
       <c r="E25" s="21">
-        <f>SUM(C25,E24)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="C26" s="21"/>
       <c r="D26" s="26"/>
       <c r="E26" s="21">
-        <f>SUM(C26,E25)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="26"/>
       <c r="E27" s="21">
-        <f>SUM(C27,E26)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       <c r="C28" s="21"/>
       <c r="D28" s="26"/>
       <c r="E28" s="21">
-        <f>SUM(C28,E27)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="26"/>
       <c r="E29" s="21">
-        <f>SUM(C29,E28)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       <c r="C30" s="21"/>
       <c r="D30" s="26"/>
       <c r="E30" s="21">
-        <f>SUM(C30,E29)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="26"/>
       <c r="E31" s="21">
-        <f>SUM(C31,E30)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="26"/>
       <c r="E32" s="21">
-        <f>SUM(C32,E31)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="26"/>
       <c r="E33" s="21">
-        <f>SUM(C33,E32)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="26"/>
       <c r="E34" s="21">
-        <f>SUM(C34,E33)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="26"/>
       <c r="E35" s="21">
-        <f>SUM(C35,E34)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="26"/>
       <c r="E36" s="21">
-        <f>SUM(C36,E35)</f>
+        <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
         <v>19</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="26"/>
       <c r="E37" s="21">
-        <f>SUM(C37,E36)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="26"/>
       <c r="E38" s="21">
-        <f>SUM(C38,E37)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="26"/>
       <c r="E39" s="21">
-        <f>SUM(C39,E38)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       <c r="C40" s="21"/>
       <c r="D40" s="26"/>
       <c r="E40" s="21">
-        <f>SUM(C40,E39)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="26"/>
       <c r="E41" s="21">
-        <f>SUM(C41,E40)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="26"/>
       <c r="E42" s="21">
-        <f>SUM(C42,E41)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="26"/>
       <c r="E43" s="21">
-        <f>SUM(C43,E42)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="26"/>
       <c r="E44" s="21">
-        <f>SUM(C44,E43)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       <c r="C45" s="21"/>
       <c r="D45" s="26"/>
       <c r="E45" s="21">
-        <f>SUM(C45,E44)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       <c r="C46" s="21"/>
       <c r="D46" s="26"/>
       <c r="E46" s="21">
-        <f>SUM(C46,E45)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="26"/>
       <c r="E47" s="21">
-        <f>SUM(C47,E46)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="26"/>
       <c r="E48" s="21">
-        <f>SUM(C48,E47)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="26"/>
       <c r="E49" s="21">
-        <f>SUM(C49,E48)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       <c r="C50" s="21"/>
       <c r="D50" s="26"/>
       <c r="E50" s="21">
-        <f>SUM(C50,E49)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="26"/>
       <c r="E51" s="21">
-        <f>SUM(C51,E50)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="C52" s="21"/>
       <c r="D52" s="26"/>
       <c r="E52" s="21">
-        <f>SUM(C52,E51)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="26"/>
       <c r="E53" s="21">
-        <f>SUM(C53,E52)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="26"/>
       <c r="E54" s="21">
-        <f>SUM(C54,E53)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="26"/>
       <c r="E55" s="21">
-        <f>SUM(C55,E54)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="C56" s="21"/>
       <c r="D56" s="26"/>
       <c r="E56" s="21">
-        <f>SUM(C56,E55)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="C57" s="21"/>
       <c r="D57" s="26"/>
       <c r="E57" s="21">
-        <f>SUM(C57,E56)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="26"/>
       <c r="E58" s="21">
-        <f>SUM(C58,E57)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="26"/>
       <c r="E59" s="21">
-        <f>SUM(C59,E58)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="26"/>
       <c r="E60" s="21">
-        <f>SUM(C60,E59)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="C61" s="21"/>
       <c r="D61" s="26"/>
       <c r="E61" s="21">
-        <f>SUM(C61,E60)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="C62" s="21"/>
       <c r="D62" s="26"/>
       <c r="E62" s="21">
-        <f>SUM(C62,E61)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="C63" s="21"/>
       <c r="D63" s="26"/>
       <c r="E63" s="21">
-        <f>SUM(C63,E62)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       <c r="C64" s="21"/>
       <c r="D64" s="26"/>
       <c r="E64" s="21">
-        <f>SUM(C64,E63)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="C65" s="21"/>
       <c r="D65" s="26"/>
       <c r="E65" s="21">
-        <f>SUM(C65,E64)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="C66" s="21"/>
       <c r="D66" s="26"/>
       <c r="E66" s="21">
-        <f>SUM(C66,E65)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       <c r="C67" s="21"/>
       <c r="D67" s="26"/>
       <c r="E67" s="21">
-        <f>SUM(C67,E66)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       <c r="C68" s="21"/>
       <c r="D68" s="26"/>
       <c r="E68" s="21">
-        <f>SUM(C68,E67)</f>
+        <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
         <v>19</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="C69" s="21"/>
       <c r="D69" s="26"/>
       <c r="E69" s="21">
-        <f>SUM(C69,E68)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="C70" s="21"/>
       <c r="D70" s="26"/>
       <c r="E70" s="21">
-        <f>SUM(C70,E69)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="C71" s="21"/>
       <c r="D71" s="26"/>
       <c r="E71" s="21">
-        <f>SUM(C71,E70)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="C72" s="21"/>
       <c r="D72" s="26"/>
       <c r="E72" s="21">
-        <f>SUM(C72,E71)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="C73" s="21"/>
       <c r="D73" s="26"/>
       <c r="E73" s="21">
-        <f>SUM(C73,E72)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -2124,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD01208-569F-4AA4-8A07-44C89974E63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB4C1E-92E8-425A-A3A6-141A5439BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -733,6 +733,25 @@
   <si>
     <t>ステージの外部ファイル読み込み、Vec3型の改良、当たり判定の押出処理(カプセル同士、カプセルと球)の実装をした。カプセル同士の押出処理は完全にできてないけど明日にはできるはず。
 23日に確認したメモリバグは、ステージの外部ファイル読み込みを実装した時になくなったように感じたけど、今後制作を続けていくうえで何らかの障害として復活しそう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセル同士の押出処理ができるようになった。ObjectBase型を継承したクラスの管理はSceneGameでするようにした。</t>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>オシダシショリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1276,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:L73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1352,9 +1371,11 @@
         <v>45590</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="E6" s="21">
-        <f t="shared" si="0"/>
+        <f>SUM(C6,E5)</f>
         <v>19</v>
       </c>
     </row>
@@ -2124,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2181,7 +2202,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2206,7 +2227,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2290,7 +2311,7 @@
       </c>
       <c r="I9" s="15">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.4146341463414633</v>
+        <v>3.3658536585365852</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2316,7 +2337,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.2950819672131146</v>
+        <v>2.262295081967213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2342,7 +2363,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9444444444444444</v>
+        <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2462,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB4C1E-92E8-425A-A3A6-141A5439BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DF3FD-D228-4238-97E6-EA8A5DA55755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,17 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
-  </si>
-  <si>
-    <t>アルファ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コスト</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>判定</t>
@@ -95,10 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>理想</t>
     <rPh sb="0" eb="2">
       <t>リソウ</t>
@@ -106,10 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　モーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デッドライン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -128,14 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　マップ素材</t>
     <rPh sb="6" eb="8">
       <t>ソザイ</t>
@@ -143,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・当たり判定</t>
     <rPh sb="1" eb="2">
       <t>ア</t>
@@ -206,14 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　―　待機</t>
     <rPh sb="3" eb="5">
       <t>タイキ</t>
@@ -221,18 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　―　移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　ダッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　―　空中</t>
     <rPh sb="3" eb="5">
       <t>クウチュウ</t>
@@ -311,10 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・カメラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　移動</t>
   </si>
   <si>
@@ -331,10 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　－　マップ設計</t>
   </si>
   <si>
@@ -347,10 +291,6 @@
     <t>　ー　マップ実装</t>
   </si>
   <si>
-    <t>　ー　BGM再生</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　SE再生</t>
   </si>
   <si>
@@ -360,22 +300,6 @@
     <t>　ー　音実装</t>
   </si>
   <si>
-    <t>・UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　タイトル画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　オプション画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・UX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　カーソル移動</t>
   </si>
   <si>
@@ -404,14 +328,6 @@
   </si>
   <si>
     <t>　ー　エフェクト実装</t>
-  </si>
-  <si>
-    <t>・ビルドテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未完</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　－　被ダメージ</t>
@@ -493,10 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　索敵</t>
     <rPh sb="3" eb="5">
       <t>サクテキ</t>
@@ -504,10 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　攻撃</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　罠設置/解除</t>
     <rPh sb="3" eb="6">
       <t>ワナセッチ</t>
@@ -518,10 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ポーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　装備切り替え</t>
     <rPh sb="3" eb="6">
       <t>ソウビキ</t>
@@ -552,10 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・クリスタル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　HP管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -570,10 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・音処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　―　球とマップの当たり判定</t>
     <rPh sb="3" eb="4">
       <t>キュウ</t>
@@ -691,10 +587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -736,7 +628,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カプセル同士の押出処理ができるようになった。ObjectBase型を継承したクラスの管理はSceneGameでするようにした。</t>
+    <t>アルファ</t>
+  </si>
+  <si>
+    <t>コスト</t>
+  </si>
+  <si>
+    <t>未完</t>
+  </si>
+  <si>
+    <t>　ー　モデル</t>
+  </si>
+  <si>
+    <t>　ー　モーション</t>
+  </si>
+  <si>
+    <t>　ー　SE</t>
+  </si>
+  <si>
+    <t>　ー　BGM</t>
+  </si>
+  <si>
+    <t>　ー　エフェクト</t>
+  </si>
+  <si>
+    <t>・プレイヤー</t>
+  </si>
+  <si>
+    <t>　―　ステータス</t>
+  </si>
+  <si>
+    <t>　―　移動</t>
+  </si>
+  <si>
+    <t>　―　ジャンプ</t>
+  </si>
+  <si>
+    <t>　―　ダッシュ</t>
+  </si>
+  <si>
+    <t>　ー　ステータス</t>
+  </si>
+  <si>
+    <t>　ー　攻撃</t>
+  </si>
+  <si>
+    <t>・ポーション</t>
+  </si>
+  <si>
+    <t>・クリスタル</t>
+  </si>
+  <si>
+    <t>・カメラ</t>
+  </si>
+  <si>
+    <t>・マップ</t>
+  </si>
+  <si>
+    <t>・音処理</t>
+  </si>
+  <si>
+    <t>　ー　BGM再生</t>
+  </si>
+  <si>
+    <t>・UI</t>
+  </si>
+  <si>
+    <t>　ー　タイトル画面</t>
+  </si>
+  <si>
+    <t>　ー　オプション画面</t>
+  </si>
+  <si>
+    <t>・UX</t>
+  </si>
+  <si>
+    <t>・ビルドテスト</t>
+  </si>
+  <si>
+    <t>カプセル同士の押出処理ができるようになった。ObjectBase型を継承したクラスの管理をSceneGameでするようにした。</t>
     <rPh sb="4" eb="6">
       <t>ドウシ</t>
     </rPh>
@@ -788,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,6 +828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,24 +941,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,6 +983,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1293,9 +1270,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
-  <dimension ref="B1:L73"/>
+  <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1306,832 +1283,816 @@
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:12" ht="19.5" thickBot="1">
-      <c r="B2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="37.5">
-      <c r="B3" s="22">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="37.5">
+      <c r="B3" s="16">
         <v>45587</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="14">
         <v>7.5</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14">
         <f>SUM(C3,F2)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="56.25">
-      <c r="B4" s="23">
+    <row r="4" spans="2:5" ht="56.25">
+      <c r="B4" s="17">
         <v>45588</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>7.5</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="D4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E35" si="0">SUM(C4,E3)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="37.5">
-      <c r="B5" s="23">
+    <row r="5" spans="2:5" ht="37.5">
+      <c r="B5" s="17">
         <v>45589</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="23">
+    <row r="6" spans="2:5">
+      <c r="B6" s="17">
         <v>45590</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="15">
         <f>SUM(C6,E5)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="17">
         <v>45591</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="21">
+      <c r="C7" s="15"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="17">
         <v>45592</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21">
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="17">
         <v>45593</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21">
+      <c r="C9" s="15"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="17">
         <v>45594</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21">
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="17">
         <v>45595</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21">
+      <c r="C11" s="15"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="17">
         <v>45596</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="21">
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="17">
         <v>45597</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="21">
+      <c r="C13" s="15"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="17">
         <v>45598</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="21">
+      <c r="C14" s="15"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="17">
         <v>45599</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="21">
+      <c r="C15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="17">
         <v>45600</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="21">
+      <c r="C16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="17">
         <v>45601</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="21">
+      <c r="C17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="17">
         <v>45602</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="21">
+      <c r="C18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="17">
         <v>45603</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="21">
+      <c r="C19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="17">
         <v>45604</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="21">
+      <c r="C20" s="15"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="17">
         <v>45605</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="21">
+      <c r="C21" s="15"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="17">
         <v>45606</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="21">
+      <c r="C22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="17">
         <v>45607</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="21">
+      <c r="C23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="17">
         <v>45608</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="21">
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="17">
         <v>45609</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="21">
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="17">
         <v>45610</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="21">
+      <c r="C26" s="15"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="17">
         <v>45611</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="21">
+      <c r="C27" s="15"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17">
         <v>45612</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="21">
+      <c r="C28" s="15"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="17">
         <v>45613</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="21">
+      <c r="C29" s="15"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="17">
         <v>45614</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="21">
+      <c r="C30" s="15"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="17">
         <v>45615</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="21">
+      <c r="C31" s="15"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="17">
         <v>45616</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="21">
+      <c r="C32" s="15"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="23">
+      <c r="B33" s="17">
         <v>45617</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="21">
+      <c r="C33" s="15"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23">
+      <c r="B34" s="17">
         <v>45618</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="21">
+      <c r="C34" s="15"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23">
+      <c r="B35" s="17">
         <v>45619</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="21">
+      <c r="C35" s="15"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="15">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23">
+      <c r="B36" s="17">
         <v>45620</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="21">
+      <c r="C36" s="15"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="15">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23">
+      <c r="B37" s="17">
         <v>45621</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="21">
+      <c r="C37" s="15"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23">
+      <c r="B38" s="17">
         <v>45622</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="21">
+      <c r="C38" s="15"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="23">
+      <c r="B39" s="17">
         <v>45623</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="21">
+      <c r="C39" s="15"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="23">
+      <c r="B40" s="17">
         <v>45624</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="21">
+      <c r="C40" s="15"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23">
+      <c r="B41" s="17">
         <v>45625</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="21">
+      <c r="C41" s="15"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="23">
+      <c r="B42" s="17">
         <v>45626</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="21">
+      <c r="C42" s="15"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="23">
+      <c r="B43" s="17">
         <v>45627</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="21">
+      <c r="C43" s="15"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="23">
+      <c r="B44" s="17">
         <v>45628</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="21">
+      <c r="C44" s="15"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="23">
+      <c r="B45" s="17">
         <v>45629</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="21">
+      <c r="C45" s="15"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="23">
+      <c r="B46" s="17">
         <v>45630</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="21">
+      <c r="C46" s="15"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="23">
+      <c r="B47" s="17">
         <v>45631</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="21">
+      <c r="C47" s="15"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="23">
+      <c r="B48" s="17">
         <v>45632</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="21">
+      <c r="C48" s="15"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="23">
+      <c r="B49" s="17">
         <v>45633</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="21">
+      <c r="C49" s="15"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="23">
+      <c r="B50" s="17">
         <v>45634</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="21">
+      <c r="C50" s="15"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="23">
+      <c r="B51" s="17">
         <v>45635</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="21">
+      <c r="C51" s="15"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="23">
+      <c r="B52" s="17">
         <v>45636</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="21">
+      <c r="C52" s="15"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="23">
+      <c r="B53" s="17">
         <v>45637</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="21">
+      <c r="C53" s="15"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="23">
+      <c r="B54" s="17">
         <v>45638</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="21">
+      <c r="C54" s="15"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="23">
+      <c r="B55" s="17">
         <v>45639</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="21">
+      <c r="C55" s="15"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="23">
+      <c r="B56" s="17">
         <v>45640</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="21">
+      <c r="C56" s="15"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="23">
+      <c r="B57" s="17">
         <v>45641</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="21">
+      <c r="C57" s="15"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="23">
+      <c r="B58" s="17">
         <v>45642</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="21">
+      <c r="C58" s="15"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="23">
+      <c r="B59" s="17">
         <v>45643</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="21">
+      <c r="C59" s="15"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="23">
+      <c r="B60" s="17">
         <v>45644</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="21">
+      <c r="C60" s="15"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="23">
+      <c r="B61" s="17">
         <v>45645</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="21">
+      <c r="C61" s="15"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="23">
+      <c r="B62" s="17">
         <v>45646</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="21">
+      <c r="C62" s="15"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="23">
+      <c r="B63" s="17">
         <v>45647</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="21">
+      <c r="C63" s="15"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="23">
+      <c r="B64" s="17">
         <v>45648</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="21">
+      <c r="C64" s="15"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="23">
+      <c r="B65" s="17">
         <v>45649</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="21">
+      <c r="C65" s="15"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="23">
+      <c r="B66" s="17">
         <v>45650</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="21">
+      <c r="C66" s="15"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="23">
+      <c r="B67" s="17">
         <v>45651</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="21">
+      <c r="C67" s="15"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="23">
+      <c r="B68" s="17">
         <v>45652</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="21">
+      <c r="C68" s="15"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="15">
         <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="23">
+      <c r="B69" s="17">
         <v>45653</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="21">
+      <c r="C69" s="15"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="23">
+      <c r="B70" s="17">
         <v>45654</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="21">
+      <c r="C70" s="15"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="23">
+      <c r="B71" s="17">
         <v>45655</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="21">
+      <c r="C71" s="15"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="23">
+      <c r="B72" s="17">
         <v>45656</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="21">
+      <c r="C72" s="15"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="23">
+      <c r="B73" s="17">
         <v>45657</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="21">
+      <c r="C73" s="15"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2145,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2162,43 +2123,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="G2">
         <f>SUM(B3:B300)</f>
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
@@ -2206,1014 +2171,1134 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>96</v>
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22">
+        <v>6</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="15">
+        <v>75</v>
+      </c>
+      <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="8">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="8">
+        <f ca="1">TODAY()</f>
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="13">
-        <f ca="1">TODAY()</f>
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="A9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="9">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>41</v>
-      </c>
-      <c r="I9" s="15">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.3658536585365852</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>61</v>
-      </c>
-      <c r="I10" s="15">
+        <v>60</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.262295081967213</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I11" s="15">
+        <v>71</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9166666666666667</v>
+        <v>1.7746478873239437</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="22">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21">
+        <v>2</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="22">
+        <v>2</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22">
+        <v>2</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="22">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="22">
+        <v>4</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="21">
+        <v>2</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="21">
+        <v>2</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="21">
+        <v>2</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="22">
+        <v>4</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
+      <c r="B42" s="22">
+        <v>4</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="22">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="22">
+        <v>1</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="22">
+        <v>1</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="22">
+        <v>2</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="22">
+        <v>2</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="22">
+        <v>1</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="22">
+        <v>1</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="22">
+        <v>1</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="21">
+        <v>1</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="22">
+        <v>2</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="22">
+        <v>2</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="22">
+        <v>2</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="22">
+        <v>1</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="21">
+        <v>2</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="22">
+        <v>12</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="22">
+        <v>1</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="22">
+        <v>1</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="22">
+        <v>4</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="21">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="22">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+      <c r="C76" s="22"/>
+      <c r="D76" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="22">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="22">
+        <v>3</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="22">
+        <v>4</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="22">
+        <v>1</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="22">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="22">
+        <v>2</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="22">
+        <v>2</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23">
+      <c r="C85" s="22"/>
+      <c r="D85" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="22">
+        <v>1</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="22">
+        <v>1</v>
+      </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="22">
+        <v>4</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="22">
+        <v>3</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="21">
+        <v>1</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="21">
+        <v>1</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="22">
+        <v>4</v>
+      </c>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="21">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
+      <c r="C94" s="22"/>
+      <c r="D94" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="22">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29">
-        <v>0.5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31">
-        <v>0.5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>0.5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40">
-        <v>0.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>0.5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71">
-        <v>0.5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72">
-        <v>0.5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73">
-        <v>0.5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>68</v>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3254,6 +3339,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3488,16 +3582,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3514,12 +3607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DF3FD-D228-4238-97E6-EA8A5DA55755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43094687-B1EE-42C7-9085-98D5E289457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="19200" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -984,12 +984,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2123,24 +2123,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2152,14 +2149,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2167,18 +2163,17 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2186,23 +2181,20 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.05</v>
+        <v>1.0952380952380953</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
       <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
@@ -2212,14 +2204,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2227,30 +2218,28 @@
       </c>
       <c r="G6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45591</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" t="s">
         <v>86</v>
       </c>
       <c r="H8" t="s">
@@ -2261,14 +2250,13 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2284,18 +2272,17 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2311,18 +2298,17 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1</v>
+        <v>2.0666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2338,966 +2324,856 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7746478873239437</v>
+        <v>1.7464788732394365</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="22" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22" t="s">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="21">
         <v>1</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="22" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="21">
         <v>2</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="22" t="s">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20">
         <v>0.5</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="22" t="s">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="D23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="21">
         <v>2</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>86</v>
+      <c r="D24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="22" t="s">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="D25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="22" t="s">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="D26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22" t="s">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="D27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22" t="s">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
+      <c r="D28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="22" t="s">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <v>0.5</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="22" t="s">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
+      <c r="D30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="22" t="s">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31">
         <v>0.5</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="22" t="s">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
+      <c r="D32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="22" t="s">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
+      <c r="D33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="22" t="s">
+      <c r="A35" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="21">
         <v>1</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
+      <c r="D35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="22" t="s">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="21">
         <v>0.5</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
+      <c r="D36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="22" t="s">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="27">
         <v>2</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
+      <c r="D37" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="22" t="s">
+      <c r="A38" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="21">
         <v>2</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="22" t="s">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="21">
         <v>2</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="22" t="s">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="21">
         <v>0.5</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22" t="s">
+      <c r="D40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="22" t="s">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22" t="s">
+      <c r="D41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="22" t="s">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22" t="s">
+      <c r="D42" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="22" t="s">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22" t="s">
+      <c r="D44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="22" t="s">
+      <c r="A45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
+      <c r="D45" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="22" t="s">
+      <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
+      <c r="D46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="22" t="s">
+      <c r="A47" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47">
         <v>0.5</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22" t="s">
+      <c r="D47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="22" t="s">
+      <c r="A49" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
+      <c r="D49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="22" t="s">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
+      <c r="D50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="22" t="s">
+      <c r="A51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
+      <c r="D51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="22" t="s">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
+      <c r="D53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="22" t="s">
+      <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
+      <c r="D54" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="22" t="s">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
+      <c r="D55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="22" t="s">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="21">
         <v>1</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22" t="s">
+      <c r="D57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="22" t="s">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="21">
         <v>1</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22" t="s">
+      <c r="D58" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="22" t="s">
+      <c r="A60" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22" t="s">
+      <c r="D60" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="22" t="s">
+      <c r="A61" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22" t="s">
+      <c r="D61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="22" t="s">
+      <c r="A62" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22" t="s">
+      <c r="D62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="22" t="s">
+      <c r="A63" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22" t="s">
+      <c r="D63" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="22" t="s">
+      <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="21">
         <v>2</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22" t="s">
+      <c r="D64" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="22" t="s">
+      <c r="A66" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66">
         <v>12</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22" t="s">
+      <c r="D66" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="22" t="s">
+      <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22" t="s">
+      <c r="D67" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="22" t="s">
+      <c r="A68" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
+      <c r="D68" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="22" t="s">
+      <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69">
         <v>4</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22" t="s">
+      <c r="D69" t="s">
         <v>86</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="22" t="s">
+      <c r="A71" t="s">
         <v>104</v>
       </c>
       <c r="B71" s="21">
         <v>0.5</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22" t="s">
+      <c r="D71" t="s">
         <v>86</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="22" t="s">
+      <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" s="21">
         <v>0.5</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22" t="s">
+      <c r="D72" t="s">
         <v>86</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="22" t="s">
+      <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="21">
         <v>0.5</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22" t="s">
+      <c r="D73" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="22" t="s">
+      <c r="A74" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="21">
         <v>2</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22" t="s">
+      <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="22" t="s">
+      <c r="A76" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22" t="s">
+      <c r="D76" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="22" t="s">
+      <c r="A77" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22" t="s">
+      <c r="D77" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="22" t="s">
+      <c r="A78" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78">
         <v>3</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22" t="s">
+      <c r="D78" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="22" t="s">
+      <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22" t="s">
+      <c r="D79" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="22" t="s">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22" t="s">
+      <c r="D80" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="22" t="s">
+      <c r="A81" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="22">
+      <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22" t="s">
+      <c r="D81" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="22" t="s">
+      <c r="A82" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22" t="s">
+      <c r="D82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="22" t="s">
+      <c r="A83" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22" t="s">
+      <c r="D83" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="22" t="s">
+      <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22" t="s">
+      <c r="D85" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="22" t="s">
+      <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22" t="s">
+      <c r="D86" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="22" t="s">
+      <c r="A87" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22" t="s">
+      <c r="D87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="22" t="s">
+      <c r="A88" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88">
         <v>4</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22" t="s">
+      <c r="D88" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="22" t="s">
+      <c r="A89" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22" t="s">
+      <c r="D89" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="22" t="s">
+      <c r="A91" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="21">
         <v>1</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22" t="s">
+      <c r="D91" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="22" t="s">
+      <c r="A92" t="s">
         <v>45</v>
       </c>
       <c r="B92" s="21">
         <v>1</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22" t="s">
+      <c r="D92" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="22" t="s">
+      <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B93">
         <v>4</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22" t="s">
+      <c r="D93" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="22" t="s">
+      <c r="A94" t="s">
         <v>47</v>
       </c>
       <c r="B94" s="21">
         <v>2</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22" t="s">
+      <c r="D94" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="22">
+      <c r="B95">
         <v>2</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22" t="s">
+      <c r="D95" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3339,15 +3215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3582,15 +3449,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3607,4 +3475,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43094687-B1EE-42C7-9085-98D5E289457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1474F9-ECB1-4B08-8758-DAA54E9469A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="19200" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>23</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.0952380952380953</v>
+        <v>1.2619047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.1</v>
+        <v>3.0125000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.0666666666666669</v>
+        <v>2.0083333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7464788732394365</v>
+        <v>1.6971830985915493</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2625,7 +2625,7 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1474F9-ECB1-4B08-8758-DAA54E9469A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E90F70-D550-499A-BEBE-3F29F0FE7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14265" yWindow="0" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.2619047619047619</v>
+        <v>1.3571428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.0125000000000002</v>
+        <v>2.9624999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.0083333333333333</v>
+        <v>1.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6971830985915493</v>
+        <v>1.6690140845070423</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2451,7 +2451,7 @@
       <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="27">
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -2566,7 +2566,7 @@
       <c r="A35" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="27">
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -2588,7 +2588,7 @@
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
@@ -2610,7 +2610,7 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="27">
         <v>2</v>
       </c>
       <c r="D39" t="s">
@@ -2621,7 +2621,7 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="27">
         <v>0.5</v>
       </c>
       <c r="D40" t="s">
@@ -2784,22 +2784,22 @@
       <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="27">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="27">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3215,6 +3215,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3449,16 +3458,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3475,12 +3483,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E90F70-D550-499A-BEBE-3F29F0FE7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5837A5-5DDA-46A0-A37A-876631C85DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="0" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="2160" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>28.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.3571428571428572</v>
+        <v>1.5238095238095237</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.9624999999999999</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.9750000000000001</v>
+        <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6690140845070423</v>
+        <v>1.619718309859155</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2451,7 +2451,7 @@
       <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -2566,7 +2566,7 @@
       <c r="A35" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -2610,7 +2610,7 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
@@ -2621,7 +2621,7 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40">
         <v>0.5</v>
       </c>
       <c r="D40" t="s">
@@ -2784,7 +2784,7 @@
       <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
@@ -2795,7 +2795,7 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
@@ -2922,11 +2922,11 @@
       <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="27">
         <v>0.5</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -2934,11 +2934,11 @@
       <c r="A72" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="27">
         <v>0.5</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -2946,22 +2946,22 @@
       <c r="A73" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="27">
         <v>0.5</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="27">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3215,15 +3215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3458,15 +3449,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3483,4 +3475,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5837A5-5DDA-46A0-A37A-876631C85DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195632B-946F-4F6F-AACD-5A980120543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="465" yWindow="2160" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.5238095238095237</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.875</v>
+        <v>2.7749999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.9166666666666667</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.619718309859155</v>
+        <v>1.5633802816901408</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3163,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195632B-946F-4F6F-AACD-5A980120543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FC617-3DC9-4F30-823A-09E1981766F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="2160" windowWidth="21420" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -721,6 +721,85 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月26日
+10月27日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あと、またメモリリーク的なのが発生している。リファクタリングしながら原因を探すのが次にすることな気がする。</t>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を撃てるようにしたり、動かない敵、マップとの当たり判定、クリスタル、音やエフェクトなどの実装をした。考える必要があることとして、敵のStateパターン、マップとの当たり判定、リソースのロード方法など。</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -937,11 +1016,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -989,7 +1081,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1272,13 +1381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="178.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1359,25 +1468,29 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="17">
-        <v>45591</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="29">
+        <v>15.5</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="17">
-        <v>45592</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1388,7 +1501,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1399,7 +1512,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1410,7 +1523,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1421,7 +1534,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1432,7 +1545,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1443,7 +1556,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1454,7 +1567,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -1465,7 +1578,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1476,7 +1589,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1487,7 +1600,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1498,7 +1611,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1509,7 +1622,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1520,7 +1633,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1531,7 +1644,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -1542,7 +1655,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1553,7 +1666,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1564,7 +1677,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1575,7 +1688,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1586,7 +1699,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1597,7 +1710,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -1608,7 +1721,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -1619,7 +1732,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1630,7 +1743,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -1641,7 +1754,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1652,7 +1765,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1663,7 +1776,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1674,7 +1787,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1685,7 +1798,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="15">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1696,7 +1809,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1707,7 +1820,7 @@
       <c r="D38" s="20"/>
       <c r="E38" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -1718,7 +1831,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1729,7 +1842,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1740,7 +1853,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -1751,7 +1864,7 @@
       <c r="D42" s="20"/>
       <c r="E42" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -1762,7 +1875,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -1773,7 +1886,7 @@
       <c r="D44" s="20"/>
       <c r="E44" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -1784,7 +1897,7 @@
       <c r="D45" s="20"/>
       <c r="E45" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -1795,7 +1908,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -1806,7 +1919,7 @@
       <c r="D47" s="20"/>
       <c r="E47" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -1817,7 +1930,7 @@
       <c r="D48" s="20"/>
       <c r="E48" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -1828,7 +1941,7 @@
       <c r="D49" s="20"/>
       <c r="E49" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -1839,7 +1952,7 @@
       <c r="D50" s="20"/>
       <c r="E50" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -1850,7 +1963,7 @@
       <c r="D51" s="20"/>
       <c r="E51" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -1861,7 +1974,7 @@
       <c r="D52" s="20"/>
       <c r="E52" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -1872,7 +1985,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -1883,7 +1996,7 @@
       <c r="D54" s="20"/>
       <c r="E54" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -1894,7 +2007,7 @@
       <c r="D55" s="20"/>
       <c r="E55" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -1905,7 +2018,7 @@
       <c r="D56" s="20"/>
       <c r="E56" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -1916,7 +2029,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -1927,7 +2040,7 @@
       <c r="D58" s="20"/>
       <c r="E58" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -1938,7 +2051,7 @@
       <c r="D59" s="20"/>
       <c r="E59" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -1949,7 +2062,7 @@
       <c r="D60" s="20"/>
       <c r="E60" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -1960,7 +2073,7 @@
       <c r="D61" s="20"/>
       <c r="E61" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -1971,7 +2084,7 @@
       <c r="D62" s="20"/>
       <c r="E62" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -1982,7 +2095,7 @@
       <c r="D63" s="20"/>
       <c r="E63" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -1993,7 +2106,7 @@
       <c r="D64" s="20"/>
       <c r="E64" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -2004,7 +2117,7 @@
       <c r="D65" s="20"/>
       <c r="E65" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -2015,7 +2128,7 @@
       <c r="D66" s="20"/>
       <c r="E66" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -2026,7 +2139,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -2037,7 +2150,7 @@
       <c r="D68" s="20"/>
       <c r="E68" s="15">
         <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2048,7 +2161,7 @@
       <c r="D69" s="20"/>
       <c r="E69" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -2059,7 +2172,7 @@
       <c r="D70" s="20"/>
       <c r="E70" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2070,7 +2183,7 @@
       <c r="D71" s="20"/>
       <c r="E71" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2081,7 +2194,7 @@
       <c r="D72" s="20"/>
       <c r="E72" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -2092,10 +2205,14 @@
       <c r="D73" s="20"/>
       <c r="E73" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2106,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2163,7 +2280,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>36</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2188,7 +2305,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.7142857142857142</v>
+        <v>1.7380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2272,7 +2389,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.7749999999999999</v>
+        <v>2.7625000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2298,7 +2415,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.85</v>
+        <v>1.8416666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2324,7 +2441,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5633802816901408</v>
+        <v>1.556338028169014</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2581,7 +2698,7 @@
         <v>0.5</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2922,7 +3039,7 @@
       <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71">
         <v>0.5</v>
       </c>
       <c r="D71" t="s">
@@ -2934,7 +3051,7 @@
       <c r="A72" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72">
         <v>0.5</v>
       </c>
       <c r="D72" t="s">
@@ -2946,7 +3063,7 @@
       <c r="A73" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73">
         <v>0.5</v>
       </c>
       <c r="D73" t="s">
@@ -2957,7 +3074,7 @@
       <c r="A74" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
@@ -3215,6 +3332,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3449,16 +3575,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3475,12 +3600,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FC617-3DC9-4F30-823A-09E1981766F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F18F2D-1D94-44DD-B703-DCAD92764C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -837,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,11 +1087,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,12 +1105,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1381,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1468,13 +1476,13 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <v>15.5</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E7" s="15">
@@ -1483,9 +1491,9 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="15">
@@ -2223,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2280,7 +2288,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2305,7 +2313,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.7380952380952381</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2389,7 +2397,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.7625000000000002</v>
+        <v>2.7124999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2415,7 +2423,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8416666666666666</v>
+        <v>1.8083333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2441,7 +2449,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.556338028169014</v>
+        <v>1.528169014084507</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2467,7 +2475,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2478,7 +2486,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2500,7 +2508,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2527,7 +2535,7 @@
       <c r="B20">
         <v>0.5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2538,7 +2546,7 @@
       <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2549,7 +2557,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2560,7 +2568,7 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2571,7 +2579,7 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2579,11 +2587,11 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="33">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
+      <c r="D25" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2637,7 +2645,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2686,7 +2694,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2694,10 +2702,10 @@
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="33">
         <v>0.5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2730,7 +2738,7 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2741,7 +2749,7 @@
       <c r="B40">
         <v>0.5</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2866,7 +2874,7 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2877,7 +2885,7 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2888,7 +2896,7 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2904,7 +2912,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2915,7 +2923,7 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2931,7 +2939,7 @@
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2942,7 +2950,7 @@
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2953,7 +2961,7 @@
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3002,7 +3010,7 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3013,7 +3021,7 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3042,7 +3050,7 @@
       <c r="B71">
         <v>0.5</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="34" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="1"/>
@@ -3054,7 +3062,7 @@
       <c r="B72">
         <v>0.5</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="34" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="1"/>
@@ -3066,7 +3074,7 @@
       <c r="B73">
         <v>0.5</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3077,7 +3085,7 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3243,10 +3251,10 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3254,10 +3262,10 @@
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="33">
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3265,7 +3273,7 @@
       <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="33">
         <v>4</v>
       </c>
       <c r="D93" t="s">
@@ -3276,10 +3284,10 @@
       <c r="A94" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="33">
         <v>2</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="34" t="s">
         <v>76</v>
       </c>
     </row>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F18F2D-1D94-44DD-B703-DCAD92764C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37309752-7213-4228-A1C7-7F8FB1917CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,6 +1093,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,8 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1476,10 +1476,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="33">
         <v>15.5</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -1491,8 +1491,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="30"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="28" t="s">
         <v>112</v>
       </c>
@@ -2232,7 +2232,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2475,7 +2475,10 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2486,7 +2489,10 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2508,7 +2514,10 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2535,7 +2544,10 @@
       <c r="B20">
         <v>0.5</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2546,7 +2558,10 @@
       <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2557,7 +2572,10 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2568,7 +2586,10 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2579,7 +2600,10 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2587,10 +2611,13 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="29">
         <v>2</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2645,7 +2672,10 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2694,7 +2724,10 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2702,10 +2735,13 @@
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="29">
         <v>0.5</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2738,7 +2774,10 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2749,7 +2788,10 @@
       <c r="B40">
         <v>0.5</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2874,7 +2916,10 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2885,7 +2930,10 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2896,7 +2944,10 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2912,7 +2963,10 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2923,7 +2977,10 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2939,7 +2996,10 @@
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2950,7 +3010,10 @@
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2961,7 +3024,10 @@
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3010,7 +3076,10 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3021,7 +3090,10 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3050,7 +3122,10 @@
       <c r="B71">
         <v>0.5</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="1"/>
@@ -3062,7 +3137,10 @@
       <c r="B72">
         <v>0.5</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="1"/>
@@ -3074,7 +3152,10 @@
       <c r="B73">
         <v>0.5</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3085,7 +3166,10 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3251,10 +3335,13 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="29">
         <v>1</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="C91">
+        <v>0.5</v>
+      </c>
+      <c r="D91" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3262,10 +3349,13 @@
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="33">
+      <c r="B92" s="29">
         <v>1</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="C92">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3273,7 +3363,7 @@
       <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="33">
+      <c r="B93" s="29">
         <v>4</v>
       </c>
       <c r="D93" t="s">
@@ -3284,10 +3374,13 @@
       <c r="A94" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="33">
+      <c r="B94" s="29">
         <v>2</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>76</v>
       </c>
     </row>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37309752-7213-4228-A1C7-7F8FB1917CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31E4E0-8B5E-49FA-88CF-AB01686D7562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2232,7 +2232,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="I4" s="10">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.8333333333333333</v>
+        <v>1.7380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="I9" s="10">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.7124999999999999</v>
+        <v>2.7625000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8083333333333333</v>
+        <v>1.8416666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.528169014084507</v>
+        <v>1.556338028169014</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2614,11 +2614,8 @@
       <c r="B25" s="29">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>76</v>
+      <c r="D25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31E4E0-8B5E-49FA-88CF-AB01686D7562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0FEFF-5DC3-4402-A307-2FFB1DF3C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -800,6 +800,34 @@
     </rPh>
     <rPh sb="96" eb="98">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断念したUnityのモデルが使えそうだからいったんそれで行こうと思う。進捗発表を聞きながらリファクタリングしたり、リソースのロード関係を改良したり。</t>
+    <rPh sb="0" eb="2">
+      <t>ダンネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="35" eb="40">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1389,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1506,7 +1534,9 @@
         <v>45593</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>36.5</v>
@@ -2232,7 +2262,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0FEFF-5DC3-4402-A307-2FFB1DF3C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E408EF0-A23C-447B-9AA6-3F242F69BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -804,7 +804,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>断念したUnityのモデルが使えそうだからいったんそれで行こうと思う。進捗発表を聞きながらリファクタリングしたり、リソースのロード関係を改良したり。</t>
+    <t>断念したUnityのモデルが使えそうだからいったんそれで行こうと思う。進捗発表を聞きながらリファクタリングしたり、リソースのロード関係を改良したり。たしろのおかげでメモリバグ消えました。感謝。</t>
     <rPh sb="0" eb="2">
       <t>ダンネン</t>
     </rPh>
@@ -828,6 +828,12 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1417,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1533,7 +1539,9 @@
       <c r="B9" s="17">
         <v>45593</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>114</v>
       </c>
@@ -2261,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E408EF0-A23C-447B-9AA6-3F242F69BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B459E-F8CD-4DB4-9E96-8D47ECDE819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -804,7 +804,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>断念したUnityのモデルが使えそうだからいったんそれで行こうと思う。進捗発表を聞きながらリファクタリングしたり、リソースのロード関係を改良したり。たしろのおかげでメモリバグ消えました。感謝。</t>
+    <t>土日含む日数</t>
+    <rPh sb="0" eb="3">
+      <t>ドニチフク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費コスト / 土日含む日数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ドニチフク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り日数(土日含む)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ドニチフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土日込みの消費コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断念したUnityのモデルが使えそうだからいったんそれで行こうと思う。進捗発表を聞きながらリファクタリングしたり、リソースのロード関係を改良したり。たしろのおかげでメモリバグ消えました。感謝。
+原因はshared_ptrをお互いが持ってしまってクラスそのものが削除されていなかった。</t>
     <rPh sb="0" eb="2">
       <t>ダンネン</t>
     </rPh>
@@ -834,6 +884,18 @@
     </rPh>
     <rPh sb="93" eb="95">
       <t>カンシャ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,9 +904,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="186" formatCode="0.0000"/>
+    <numFmt numFmtId="189" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1073,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1082,9 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,6 +1202,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1424,7 +1488,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1436,820 +1500,820 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="37.5">
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>45587</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>7.5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <f>SUM(C3,F2)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="56.25">
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>45588</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>7.5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:E35" si="0">SUM(C4,E3)</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="37.5">
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>45589</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>45590</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <f>SUM(C6,E5)</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <v>15.5</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="32"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="17">
+    <row r="9" spans="2:5" ht="37.5">
+      <c r="B9" s="15">
         <v>45593</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>45594</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15">
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>45595</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15">
+      <c r="C11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>45596</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15">
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>45597</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15">
+      <c r="C13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>45598</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15">
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>45599</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15">
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>45600</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15">
+      <c r="C16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>45601</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="15">
+      <c r="C17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>45602</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15">
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>45603</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15">
+      <c r="C19" s="13"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>45604</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="15">
+      <c r="C20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>45605</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="15">
+      <c r="C21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>45606</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="15">
+      <c r="C22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>45607</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="15">
+      <c r="C23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>45608</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="15">
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>45609</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="15">
+      <c r="C25" s="13"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>45610</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15">
+      <c r="C26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>45611</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="15">
+      <c r="C27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>45612</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="15">
+      <c r="C28" s="13"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>45613</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="15">
+      <c r="C29" s="13"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>45614</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="15">
+      <c r="C30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>45615</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="15">
+      <c r="C31" s="13"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>45616</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="15">
+      <c r="C32" s="13"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>45617</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="15">
+      <c r="C33" s="13"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>45618</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="15">
+      <c r="C34" s="13"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="17">
+      <c r="B35" s="15">
         <v>45619</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="15">
+      <c r="C35" s="13"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="13">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>45620</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="15">
+      <c r="C36" s="13"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="13">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
         <v>36.5</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>45621</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="15">
+      <c r="C37" s="13"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>45622</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="15">
+      <c r="C38" s="13"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="17">
+      <c r="B39" s="15">
         <v>45623</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="15">
+      <c r="C39" s="13"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>45624</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="15">
+      <c r="C40" s="13"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <v>45625</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="15">
+      <c r="C41" s="13"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>45626</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="15">
+      <c r="C42" s="13"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="17">
+      <c r="B43" s="15">
         <v>45627</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="15">
+      <c r="C43" s="13"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>45628</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="15">
+      <c r="C44" s="13"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="17">
+      <c r="B45" s="15">
         <v>45629</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="15">
+      <c r="C45" s="13"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>45630</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="15">
+      <c r="C46" s="13"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>45631</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="15">
+      <c r="C47" s="13"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>45632</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="15">
+      <c r="C48" s="13"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>45633</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="15">
+      <c r="C49" s="13"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="17">
+      <c r="B50" s="15">
         <v>45634</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="15">
+      <c r="C50" s="13"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>45635</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="15">
+      <c r="C51" s="13"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="17">
+      <c r="B52" s="15">
         <v>45636</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="15">
+      <c r="C52" s="13"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="17">
+      <c r="B53" s="15">
         <v>45637</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="15">
+      <c r="C53" s="13"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="17">
+      <c r="B54" s="15">
         <v>45638</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="15">
+      <c r="C54" s="13"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="17">
+      <c r="B55" s="15">
         <v>45639</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="15">
+      <c r="C55" s="13"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="17">
+      <c r="B56" s="15">
         <v>45640</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="15">
+      <c r="C56" s="13"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="17">
+      <c r="B57" s="15">
         <v>45641</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="15">
+      <c r="C57" s="13"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="17">
+      <c r="B58" s="15">
         <v>45642</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="15">
+      <c r="C58" s="13"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="17">
+      <c r="B59" s="15">
         <v>45643</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="15">
+      <c r="C59" s="13"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="17">
+      <c r="B60" s="15">
         <v>45644</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="15">
+      <c r="C60" s="13"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="17">
+      <c r="B61" s="15">
         <v>45645</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="15">
+      <c r="C61" s="13"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="17">
+      <c r="B62" s="15">
         <v>45646</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="15">
+      <c r="C62" s="13"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="17">
+      <c r="B63" s="15">
         <v>45647</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="15">
+      <c r="C63" s="13"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="17">
+      <c r="B64" s="15">
         <v>45648</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="15">
+      <c r="C64" s="13"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="17">
+      <c r="B65" s="15">
         <v>45649</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="15">
+      <c r="C65" s="13"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="17">
+      <c r="B66" s="15">
         <v>45650</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="15">
+      <c r="C66" s="13"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="17">
+      <c r="B67" s="15">
         <v>45651</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="15">
+      <c r="C67" s="13"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="13">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="17">
+      <c r="B68" s="15">
         <v>45652</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="15">
+      <c r="C68" s="13"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="13">
         <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
         <v>36.5</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>45653</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="15">
+      <c r="C69" s="13"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="13">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="17">
+      <c r="B70" s="15">
         <v>45654</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="15">
+      <c r="C70" s="13"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="13">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="17">
+      <c r="B71" s="15">
         <v>45655</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="15">
+      <c r="C71" s="13"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="13">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="17">
+      <c r="B72" s="15">
         <v>45656</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="15">
+      <c r="C72" s="13"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="13">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="17">
+      <c r="B73" s="15">
         <v>45657</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="15">
+      <c r="C73" s="13"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="13">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
@@ -2267,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2283,24 +2347,26 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2311,8 +2377,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -2328,9 +2394,15 @@
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="25" t="s">
+      <c r="J3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -2344,29 +2416,37 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="34">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.7380952380952381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="25" t="s">
+        <v>1.6590909090909092</v>
+      </c>
+      <c r="J4">
+        <f ca="1">_xlfn.DAYS(G6,G5)</f>
+        <v>29</v>
+      </c>
+      <c r="K4" s="34">
+        <f ca="1">G3/J4</f>
+        <v>1.2586206896551724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="35">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2379,12 +2459,12 @@
       <c r="F6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="35">
         <f ca="1">TODAY()</f>
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2395,7 +2475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2411,8 +2491,14 @@
       <c r="I8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2429,16 +2515,24 @@
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>40</v>
-      </c>
-      <c r="I9" s="10">
+        <v>39</v>
+      </c>
+      <c r="I9" s="34">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.7625000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="J9">
+        <f ca="1">_xlfn.DAYS(G9,$G6)</f>
+        <v>52</v>
+      </c>
+      <c r="K9" s="34">
+        <f ca="1">($G$2 - $G$3) / J9</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2455,16 +2549,24 @@
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>60</v>
-      </c>
-      <c r="I10" s="10">
+        <v>59</v>
+      </c>
+      <c r="I10" s="34">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8416666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.8728813559322033</v>
+      </c>
+      <c r="J10">
+        <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
+        <v>80</v>
+      </c>
+      <c r="K10" s="34">
+        <f ca="1">($G$2 - $G$3) / J10</f>
+        <v>1.3812500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2481,16 +2583,24 @@
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="I11" s="10">
+        <v>70</v>
+      </c>
+      <c r="I11" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.556338028169014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.5785714285714285</v>
+      </c>
+      <c r="J11">
+        <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
+        <v>97</v>
+      </c>
+      <c r="K11" s="34">
+        <f ca="1">($G$2 - $G$3) / J11</f>
+        <v>1.1391752577319587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2501,12 +2611,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2516,11 +2626,11 @@
       <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2530,15 +2640,15 @@
       <c r="C15">
         <v>2.5</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="D16" t="s">
@@ -2555,7 +2665,7 @@
       <c r="C17">
         <v>2.5</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2563,7 +2673,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="D18" t="s">
@@ -2571,7 +2681,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2585,7 +2695,7 @@
       <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2599,7 +2709,7 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2613,7 +2723,7 @@
       <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2627,7 +2737,7 @@
       <c r="C23">
         <v>0.5</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2641,7 +2751,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2649,7 +2759,7 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -2710,7 +2820,7 @@
       <c r="C30">
         <v>0.5</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2748,7 +2858,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2762,7 +2872,7 @@
       <c r="C35">
         <v>0.5</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2770,13 +2880,13 @@
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="27">
         <v>0.5</v>
       </c>
       <c r="C36">
         <v>0.5</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2795,7 +2905,7 @@
       <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="19">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -2812,7 +2922,7 @@
       <c r="C39">
         <v>0.5</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2826,7 +2936,7 @@
       <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2853,7 +2963,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2902,7 +3012,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2940,7 +3050,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2954,7 +3064,7 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2968,7 +3078,7 @@
       <c r="C54">
         <v>0.5</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2982,12 +3092,12 @@
       <c r="C55">
         <v>0.5</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3001,7 +3111,7 @@
       <c r="C57">
         <v>0.5</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3015,12 +3125,12 @@
       <c r="C58">
         <v>0.5</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3034,7 +3144,7 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3048,7 +3158,7 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3062,7 +3172,7 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3081,7 +3191,7 @@
       <c r="A64" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="19">
         <v>2</v>
       </c>
       <c r="D64" t="s">
@@ -3089,7 +3199,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3114,7 +3224,7 @@
       <c r="C67">
         <v>0.5</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3128,7 +3238,7 @@
       <c r="C68">
         <v>0.5</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3145,7 +3255,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>103</v>
       </c>
       <c r="G70" s="1"/>
@@ -3160,7 +3270,7 @@
       <c r="C71">
         <v>0.5</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="1"/>
@@ -3175,7 +3285,7 @@
       <c r="C72">
         <v>0.5</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="1"/>
@@ -3190,7 +3300,7 @@
       <c r="C73">
         <v>0.5</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3204,12 +3314,12 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3302,7 +3412,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3362,7 +3472,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3370,13 +3480,13 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="29">
+      <c r="B91" s="27">
         <v>1</v>
       </c>
       <c r="C91">
         <v>0.5</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3384,13 +3494,13 @@
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="29">
+      <c r="B92" s="27">
         <v>1</v>
       </c>
       <c r="C92">
         <v>0.5</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3398,7 +3508,7 @@
       <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="27">
         <v>4</v>
       </c>
       <c r="D93" t="s">
@@ -3409,18 +3519,18 @@
       <c r="A94" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="29">
+      <c r="B94" s="27">
         <v>2</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B95">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B459E-F8CD-4DB4-9E96-8D47ECDE819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F406A-1CA6-4FAD-A06C-0B4E6359D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="186" formatCode="0.0000"/>
-    <numFmt numFmtId="189" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1190,6 +1190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1487,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1574,10 +1574,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="34">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1589,8 +1589,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="30"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2394,10 +2394,10 @@
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
         <v>36.5</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2416,22 +2416,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="30">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.6590909090909092</v>
+        <v>1.5869565217391304</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>29</v>
-      </c>
-      <c r="K4" s="34">
+        <v>30</v>
+      </c>
+      <c r="K4" s="30">
         <f ca="1">G3/J4</f>
-        <v>1.2586206896551724</v>
+        <v>1.2166666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2441,7 +2441,7 @@
       <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="31">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
@@ -2459,9 +2459,9 @@
       <c r="F6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="31">
         <f ca="1">TODAY()</f>
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2491,10 +2491,10 @@
       <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2517,19 +2517,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>39</v>
-      </c>
-      <c r="I9" s="34">
+        <v>38</v>
+      </c>
+      <c r="I9" s="30">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.8333333333333335</v>
+        <v>2.9078947368421053</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>52</v>
-      </c>
-      <c r="K9" s="34">
+        <v>51</v>
+      </c>
+      <c r="K9" s="30">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.125</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2551,19 +2551,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>59</v>
-      </c>
-      <c r="I10" s="34">
+        <v>58</v>
+      </c>
+      <c r="I10" s="30">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8728813559322033</v>
+        <v>1.9051724137931034</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>80</v>
-      </c>
-      <c r="K10" s="34">
+        <v>79</v>
+      </c>
+      <c r="K10" s="30">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.3812500000000001</v>
+        <v>1.3987341772151898</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2585,19 +2585,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I11" s="34">
+        <v>69</v>
+      </c>
+      <c r="I11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5785714285714285</v>
+        <v>1.6014492753623188</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>97</v>
-      </c>
-      <c r="K11" s="34">
+        <v>96</v>
+      </c>
+      <c r="K11" s="30">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1391752577319587</v>
+        <v>1.1510416666666667</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2675,6 +2675,9 @@
       </c>
       <c r="B18" s="19">
         <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F406A-1CA6-4FAD-A06C-0B4E6359D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE2692-1C1B-4E79-953F-EBA6F4801E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>114</v>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="I4" s="30">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.5869565217391304</v>
+        <v>1.673913043478261</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K4" s="30">
         <f ca="1">G3/J4</f>
-        <v>1.2166666666666666</v>
+        <v>1.2833333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I9" s="30">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.9078947368421053</v>
+        <v>2.8552631578947367</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="K9" s="30">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.1666666666666665</v>
+        <v>2.1274509803921569</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="I10" s="30">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.9051724137931034</v>
+        <v>1.8706896551724137</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="K10" s="30">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.3987341772151898</v>
+        <v>1.3734177215189873</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6014492753623188</v>
+        <v>1.5724637681159421</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K11" s="30">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1510416666666667</v>
+        <v>1.1302083333333333</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2765,8 +2765,11 @@
       <c r="B25" s="27">
         <v>2</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE2692-1C1B-4E79-953F-EBA6F4801E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FFF25-064F-486C-8DF2-396A6DD21DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>114</v>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="I4" s="30">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.673913043478261</v>
+        <v>1.7173913043478262</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K4" s="30">
         <f ca="1">G3/J4</f>
-        <v>1.2833333333333334</v>
+        <v>1.3166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I9" s="30">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.8552631578947367</v>
+        <v>2.8289473684210527</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="K9" s="30">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.1274509803921569</v>
+        <v>2.107843137254902</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="I10" s="30">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8706896551724137</v>
+        <v>1.853448275862069</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="K10" s="30">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.3734177215189873</v>
+        <v>1.360759493670886</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="I11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5724637681159421</v>
+        <v>1.5579710144927537</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K11" s="30">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1302083333333333</v>
+        <v>1.1197916666666667</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2768,7 +2768,7 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2779,8 +2779,11 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>86</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FFF25-064F-486C-8DF2-396A6DD21DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10312F-CAEE-4377-9C42-5011A554F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -896,6 +896,94 @@
     </rPh>
     <rPh sb="130" eb="132">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unityのモデル、きついやつはきつかった。UEのアセットストアでゴブリン的なモデルがよさそうだったけど、そもそもUEからFBXエクスポートできるのか、エクスポートして問題なく動くのかわからん過ぎて怖い。
+カプセルのマップの角のがくがくするやつを直そうとしたけど無理だった。</t>
+    <rPh sb="37" eb="38">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモデルの実装やアニメーションを付けた。ジャンプがちゃんと地面につく前に着地アニメーションに入るようにできたのうれしい。でも操作の手触りがちょっと気持ち悪い気がするからUXのタスクの時に調整。
+明日はプレイヤーの移動方向に応じた歩きアニメーションを実装して、</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>テザワ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>アシタ</t>
+    </rPh>
+    <rPh sb="110" eb="114">
+      <t>イドウホウコウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1136,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1188,9 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1487,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1574,10 +1660,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1589,8 +1675,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -1614,26 +1700,34 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" ht="56.25">
       <c r="B10" s="15">
         <v>45594</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="56.25">
       <c r="B11" s="15">
         <v>45595</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1644,7 +1738,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1655,7 +1749,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1666,7 +1760,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1677,7 +1771,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -1688,7 +1782,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1699,7 +1793,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1710,7 +1804,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1721,7 +1815,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1732,7 +1826,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1743,7 +1837,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1754,7 +1848,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -1765,7 +1859,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1776,7 +1870,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1787,7 +1881,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1798,7 +1892,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1809,7 +1903,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1820,7 +1914,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -1831,7 +1925,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -1842,7 +1936,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1853,7 +1947,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -1864,7 +1958,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1875,7 +1969,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1886,7 +1980,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1897,7 +1991,7 @@
       <c r="D35" s="18"/>
       <c r="E35" s="13">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1908,7 +2002,7 @@
       <c r="D36" s="18"/>
       <c r="E36" s="13">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1919,7 +2013,7 @@
       <c r="D37" s="18"/>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1930,7 +2024,7 @@
       <c r="D38" s="18"/>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -1941,7 +2035,7 @@
       <c r="D39" s="18"/>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1952,7 +2046,7 @@
       <c r="D40" s="18"/>
       <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1963,7 +2057,7 @@
       <c r="D41" s="18"/>
       <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -1974,7 +2068,7 @@
       <c r="D42" s="18"/>
       <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -1985,7 +2079,7 @@
       <c r="D43" s="18"/>
       <c r="E43" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -1996,7 +2090,7 @@
       <c r="D44" s="18"/>
       <c r="E44" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -2007,7 +2101,7 @@
       <c r="D45" s="18"/>
       <c r="E45" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -2018,7 +2112,7 @@
       <c r="D46" s="18"/>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -2029,7 +2123,7 @@
       <c r="D47" s="18"/>
       <c r="E47" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2040,7 +2134,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2051,7 +2145,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2062,7 +2156,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2073,7 +2167,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2084,7 +2178,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2095,7 +2189,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -2106,7 +2200,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2117,7 +2211,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2128,7 +2222,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -2139,7 +2233,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2150,7 +2244,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2161,7 +2255,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2172,7 +2266,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2183,7 +2277,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2194,7 +2288,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2205,7 +2299,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2216,7 +2310,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -2227,7 +2321,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -2238,7 +2332,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -2249,7 +2343,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="13">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -2260,7 +2354,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="13">
         <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2271,7 +2365,7 @@
       <c r="D69" s="18"/>
       <c r="E69" s="13">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -2282,7 +2376,7 @@
       <c r="D70" s="18"/>
       <c r="E70" s="13">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2293,7 +2387,7 @@
       <c r="D71" s="18"/>
       <c r="E71" s="13">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2304,7 +2398,7 @@
       <c r="D72" s="18"/>
       <c r="E72" s="13">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -2315,7 +2409,7 @@
       <c r="D73" s="18"/>
       <c r="E73" s="13">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2333,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2392,12 +2486,12 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>39.5</v>
-      </c>
-      <c r="J3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2416,22 +2510,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.7173913043478262</v>
+        <v>1.75</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>30</v>
-      </c>
-      <c r="K4" s="30">
+        <v>31</v>
+      </c>
+      <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.3166666666666667</v>
+        <v>1.3548387096774193</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2441,7 +2535,7 @@
       <c r="F5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
@@ -2459,9 +2553,9 @@
       <c r="F6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45595</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2491,10 +2585,10 @@
       <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2517,19 +2611,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>38</v>
-      </c>
-      <c r="I9" s="30">
+        <v>37</v>
+      </c>
+      <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.8289473684210527</v>
+        <v>2.8378378378378377</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>51</v>
-      </c>
-      <c r="K9" s="30">
+        <v>50</v>
+      </c>
+      <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.107843137254902</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2551,19 +2645,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>58</v>
-      </c>
-      <c r="I10" s="30">
+        <v>57</v>
+      </c>
+      <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.853448275862069</v>
+        <v>1.8421052631578947</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>79</v>
-      </c>
-      <c r="K10" s="30">
+        <v>78</v>
+      </c>
+      <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.360759493670886</v>
+        <v>1.3461538461538463</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2585,19 +2679,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="I11" s="30">
+        <v>68</v>
+      </c>
+      <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5579710144927537</v>
+        <v>1.5441176470588236</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>96</v>
-      </c>
-      <c r="K11" s="30">
+        <v>95</v>
+      </c>
+      <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1197916666666667</v>
+        <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2626,7 +2720,7 @@
       <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2640,7 +2734,7 @@
       <c r="C15">
         <v>2.5</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2665,7 +2759,7 @@
       <c r="C17">
         <v>2.5</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2698,7 +2792,7 @@
       <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2712,7 +2806,7 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2726,7 +2820,7 @@
       <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2740,7 +2834,7 @@
       <c r="C23">
         <v>0.5</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2754,7 +2848,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2762,13 +2856,13 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2782,7 +2876,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2829,7 +2923,7 @@
       <c r="C30">
         <v>0.5</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2881,7 +2975,7 @@
       <c r="C35">
         <v>0.5</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2889,13 +2983,13 @@
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36">
         <v>0.5</v>
       </c>
       <c r="C36">
         <v>0.5</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2931,7 +3025,7 @@
       <c r="C39">
         <v>0.5</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2945,7 +3039,7 @@
       <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2983,8 +3077,8 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>86</v>
+      <c r="D44" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3005,8 +3099,8 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>86</v>
+      <c r="D46" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3016,8 +3110,8 @@
       <c r="B47">
         <v>0.5</v>
       </c>
-      <c r="D47" t="s">
-        <v>86</v>
+      <c r="D47" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3073,7 +3167,7 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3087,7 +3181,7 @@
       <c r="C54">
         <v>0.5</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3101,7 +3195,7 @@
       <c r="C55">
         <v>0.5</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3120,7 +3214,7 @@
       <c r="C57">
         <v>0.5</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3134,7 +3228,7 @@
       <c r="C58">
         <v>0.5</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3153,7 +3247,7 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3167,7 +3261,7 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3181,7 +3275,7 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3233,7 +3327,7 @@
       <c r="C67">
         <v>0.5</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3247,7 +3341,7 @@
       <c r="C68">
         <v>0.5</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3279,7 +3373,7 @@
       <c r="C71">
         <v>0.5</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="1"/>
@@ -3294,7 +3388,7 @@
       <c r="C72">
         <v>0.5</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="27" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="1"/>
@@ -3309,7 +3403,7 @@
       <c r="C73">
         <v>0.5</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3323,7 +3417,7 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3489,13 +3583,13 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
         <v>0.5</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3503,13 +3597,13 @@
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
         <v>0.5</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3517,7 +3611,7 @@
       <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93">
         <v>4</v>
       </c>
       <c r="D93" t="s">
@@ -3528,13 +3622,13 @@
       <c r="A94" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94">
         <v>2</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="27" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3587,15 +3681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3830,15 +3915,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3855,4 +3941,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10312F-CAEE-4377-9C42-5011A554F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CD46-78A3-4AD3-AAE7-E639DD411F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -930,7 +930,7 @@
   </si>
   <si>
     <t>プレイヤーモデルの実装やアニメーションを付けた。ジャンプがちゃんと地面につく前に着地アニメーションに入るようにできたのうれしい。でも操作の手触りがちょっと気持ち悪い気がするからUXのタスクの時に調整。
-明日はプレイヤーの移動方向に応じた歩きアニメーションを実装して、</t>
+明日はプレイヤーの移動方向に応じた歩きアニメーションを実装する。</t>
     <rPh sb="9" eb="11">
       <t>ジッソウ</t>
     </rPh>
@@ -984,6 +984,22 @@
     </rPh>
     <rPh sb="128" eb="130">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動方向に応じた歩きアニメーションをつけれた。あと、プレイヤーがクロスボウを持つようになった。</t>
+    <rPh sb="0" eb="4">
+      <t>イドウホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1574,7 +1590,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1735,7 +1751,9 @@
         <v>45596</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2427,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CD46-78A3-4AD3-AAE7-E639DD411F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3DADD-CD6B-48AA-B733-17189E5BFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1589,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2528,22 +2528,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.75</v>
+        <v>1.4482758620689655</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.3548387096774193</v>
+        <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45596</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>2.8378378378378377</v>
+        <v>3.28125</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.1</v>
+        <v>2.441860465116279</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2663,19 +2663,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>1.8421052631578947</v>
+        <v>2.0192307692307692</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.3461538461538463</v>
+        <v>1.4788732394366197</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2697,19 +2697,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5441176470588236</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1052631578947369</v>
+        <v>1.1931818181818181</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3DADD-CD6B-48AA-B733-17189E5BFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D7895-53D5-42D6-B641-EC1AF015D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
-    <sheet name="アルファ" sheetId="1" r:id="rId2"/>
-    <sheet name="ベータ" sheetId="2" r:id="rId3"/>
-    <sheet name="マスタ" sheetId="3" r:id="rId4"/>
+    <sheet name="メモ帳" sheetId="5" r:id="rId2"/>
+    <sheet name="アルファ" sheetId="1" r:id="rId3"/>
+    <sheet name="ベータ" sheetId="2" r:id="rId4"/>
+    <sheet name="マスタ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1000,6 +1001,159 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エグゾプライマルのグリッド関係について</t>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそもマップからどうやってグリッドを作るか</t>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠設置可能ポイントを使うのがよさそうな気がする</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>セッチカノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床罠設置可能ポイントを中心としたn×nの正方形を作る？</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="1" eb="6">
+      <t>ワナセッチカノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それならy座標もその床罠設置可能座標から</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="11" eb="18">
+      <t>ワナセッチカノウザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差はいけるが坂道がきつい</t>
+    <rPh sb="0" eb="2">
+      <t>ダンサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サカミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョンモデルを使う？</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結局①と同じ問題</t>
+    <rPh sb="0" eb="2">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂道どうしよう問題</t>
+    <rPh sb="0" eb="2">
+      <t>サカミチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://gamemakers.jp/article/2024_04_12_66004/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドの座標情報を中心のみではなく4つ角の座標にする？</t>
+    <rPh sb="5" eb="9">
+      <t>ザヒョウジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MV1CollCheck_LineDimを使ってy座標に依存するグリッドを作ることはできた</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦これをつかってやるだけやってみようかな</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1013,7 +1167,7 @@
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1189,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1237,10 +1399,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1307,8 +1470,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2442,10 +2608,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="34" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{7611AB15-6001-48DB-A775-9F4A17EC692D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3668,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4416D-9062-4DAF-A047-57AB4A8BE771}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3683,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D2C22-999A-42D4-BD4F-8D4FC0E5041D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3699,6 +3954,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -3933,16 +4197,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3959,12 +4222,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D7895-53D5-42D6-B641-EC1AF015D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2836BDD-B4F4-42CB-A59F-1EC5EDE978DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1105,33 +1105,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>坂道どうしよう問題</t>
-    <rPh sb="0" eb="2">
-      <t>サカミチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://gamemakers.jp/article/2024_04_12_66004/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリッドの座標情報を中心のみではなく4つ角の座標にする？</t>
-    <rPh sb="5" eb="9">
-      <t>ザヒョウジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ザヒョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1154,6 +1128,190 @@
     <t>一旦これをつかってやるだけやってみようかな</t>
     <rPh sb="0" eb="2">
       <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドに持たせたい情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身のグリッドにいる敵</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身のグリッドに攻撃判定を出す予定のあるトラップ</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウゲキハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ用の色</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲のグリッド情報？</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドに持たせたい機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠の攻撃を敵に与える</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physics でコリジョンモデルとレイキャストして床との当たり判定をとる</t>
+    <rPh sb="26" eb="27">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイと当たった座標でグリッドを作る</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがグリッド座標と向いている方向でレイキャストして置く予定のグリッドを検出する</t>
+    <rPh sb="10" eb="12">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーがトラップを置いたら置かれたグリッドとその周辺のグリッドに罠のポインタを渡す</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップとの当たり判定に苦戦。</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠を仮設置できるようになった。</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのグリッドを作成。</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1200,7 +1358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,6 +1440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1458,6 +1622,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,8 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1755,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1842,10 +2007,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="34">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1857,8 +2022,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -1974,7 +2139,9 @@
         <v>45601</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1985,7 +2152,9 @@
         <v>45602</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1996,7 +2165,9 @@
         <v>45603</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2609,20 +2780,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1">
+    <row r="1" spans="1:7" s="30" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>133</v>
+      <c r="G1" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2668,22 +2839,77 @@
     </row>
     <row r="10" spans="1:7">
       <c r="D10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="36" customFormat="1">
+      <c r="A14" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>134</v>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="36" customFormat="1">
+      <c r="A22" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="36" customFormat="1">
+      <c r="A26" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3954,15 +4180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4197,15 +4414,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4222,4 +4440,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2836BDD-B4F4-42CB-A59F-1EC5EDE978DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8093F3-E91D-4920-8508-63AAF18D892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="2445" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1312,6 +1312,64 @@
     <t>マップのグリッドを作成。</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのスロットについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0はクロスボウ固定、スロット数はステージごとに設定されていてどっかから取得してくる。</t>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーンでXかYを押すと罠選択ウィンドウが出てきて罠を選択する</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した罠の順にスロットに入れていく。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1624,6 +1682,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1636,7 +1695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1920,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2007,10 +2065,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="35">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -2022,8 +2080,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -2780,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2847,8 +2905,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="32" customFormat="1">
+      <c r="A14" s="32" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2877,8 +2935,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="36" customFormat="1">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:2" s="32" customFormat="1">
+      <c r="A22" s="32" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2887,8 +2945,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="36" customFormat="1">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:2" s="32" customFormat="1">
+      <c r="A26" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2910,6 +2968,26 @@
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="30" customFormat="1">
+      <c r="A36" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4180,6 +4258,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4414,16 +4501,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4440,12 +4526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8093F3-E91D-4920-8508-63AAF18D892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B8822-1FDF-47FF-90ED-1725C14D2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2445" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1370,6 +1370,22 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグシーンの作成とマップとカメラの当たり判定を実装。</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1625,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1695,6 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1978,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2235,11 +2252,15 @@
       <c r="B20" s="15">
         <v>45604</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2250,7 +2271,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2261,7 +2282,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2272,7 +2293,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2283,7 +2304,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2294,7 +2315,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -2305,7 +2326,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -2316,7 +2337,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -2327,7 +2348,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -2338,7 +2359,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2349,7 +2370,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2360,7 +2381,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -2371,7 +2392,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2382,7 +2403,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2393,7 +2414,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2404,7 +2425,7 @@
       <c r="D35" s="18"/>
       <c r="E35" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2415,7 +2436,7 @@
       <c r="D36" s="18"/>
       <c r="E36" s="13">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2426,7 +2447,7 @@
       <c r="D37" s="18"/>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2437,7 +2458,7 @@
       <c r="D38" s="18"/>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2448,7 +2469,7 @@
       <c r="D39" s="18"/>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -2459,7 +2480,7 @@
       <c r="D40" s="18"/>
       <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -2470,7 +2491,7 @@
       <c r="D41" s="18"/>
       <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -2481,7 +2502,7 @@
       <c r="D42" s="18"/>
       <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -2492,7 +2513,7 @@
       <c r="D43" s="18"/>
       <c r="E43" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -2503,7 +2524,7 @@
       <c r="D44" s="18"/>
       <c r="E44" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -2514,7 +2535,7 @@
       <c r="D45" s="18"/>
       <c r="E45" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -2525,7 +2546,7 @@
       <c r="D46" s="18"/>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -2536,7 +2557,7 @@
       <c r="D47" s="18"/>
       <c r="E47" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2547,7 +2568,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2558,7 +2579,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2569,7 +2590,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2580,7 +2601,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2591,7 +2612,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2602,7 +2623,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -2613,7 +2634,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2624,7 +2645,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2635,7 +2656,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -2646,7 +2667,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2657,7 +2678,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2668,7 +2689,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2679,7 +2700,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2690,7 +2711,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2701,7 +2722,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2712,7 +2733,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2723,7 +2744,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -2734,7 +2755,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -2745,7 +2766,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -2756,7 +2777,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -2767,7 +2788,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="13">
         <f t="shared" ref="E68:E73" si="2">SUM(C68,E67)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2778,7 +2799,7 @@
       <c r="D69" s="18"/>
       <c r="E69" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -2789,7 +2810,7 @@
       <c r="D70" s="18"/>
       <c r="E70" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2800,7 +2821,7 @@
       <c r="D71" s="18"/>
       <c r="E71" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2811,7 +2832,7 @@
       <c r="D72" s="18"/>
       <c r="E72" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -2822,7 +2843,7 @@
       <c r="D73" s="18"/>
       <c r="E73" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2840,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3004,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3063,7 +3084,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
         <v>114</v>
@@ -3087,22 +3108,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.4482758620689655</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.1052631578947369</v>
+        <v>1.1282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3132,7 +3153,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3188,19 +3209,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.28125</v>
+        <v>3.3225806451612905</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.441860465116279</v>
+        <v>2.4523809523809526</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3222,19 +3243,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.0192307692307692</v>
+        <v>2.0196078431372548</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.4788732394366197</v>
+        <v>1.4714285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3256,19 +3277,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>1.6612903225806452</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1931818181818181</v>
+        <v>1.1839080459770115</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3654,6 +3675,9 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44" s="27" t="s">
         <v>76</v>
       </c>
@@ -3676,6 +3700,9 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" s="27" t="s">
         <v>76</v>
       </c>
@@ -3687,6 +3714,9 @@
       <c r="B47">
         <v>0.5</v>
       </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
       <c r="D47" s="27" t="s">
         <v>76</v>
       </c>
@@ -3871,11 +3901,14 @@
       <c r="A64" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="37">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
-        <v>86</v>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4258,15 +4291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4501,15 +4525,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4526,4 +4551,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B8822-1FDF-47FF-90ED-1725C14D2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16E22B-FA4B-4EFB-BB13-E812DEB29813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
-    <sheet name="メモ帳" sheetId="5" r:id="rId2"/>
-    <sheet name="アルファ" sheetId="1" r:id="rId3"/>
-    <sheet name="ベータ" sheetId="2" r:id="rId4"/>
-    <sheet name="マスタ" sheetId="3" r:id="rId5"/>
+    <sheet name="シーン遷移" sheetId="6" r:id="rId2"/>
+    <sheet name="メモ帳" sheetId="5" r:id="rId3"/>
+    <sheet name="アルファ" sheetId="1" r:id="rId4"/>
+    <sheet name="ベータ" sheetId="2" r:id="rId5"/>
+    <sheet name="マスタ" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1699,6 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,7 +1713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1728,6 +1729,1820 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4309753B-0593-4E03-99BD-641A41D55E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="2867025"/>
+          <a:ext cx="1019175" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E352F952-B66C-4417-8120-FFFB6DAAF7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="2867025"/>
+          <a:ext cx="1019175" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6514814E-33AE-4923-98FB-180EA01FDD27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2867025"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54049BFA-127F-4A43-92A9-884EC2618875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="5476875"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>強化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CFDD49-3BE0-4C69-ABA6-B9E090933872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="6429375"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>オプション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03658F0-F2EA-4910-99DF-2B2891476A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="6905625"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E329F26B-846F-4B8C-9A03-B92E290C5239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="5943600"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F6E0E-E0B2-46F4-A75A-F2059AFFA2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="3028950"/>
+          <a:ext cx="1057275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893E7FA4-1296-4C70-9F23-21DDC17A2214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1038225" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C0CD81-9127-440E-AE30-C7D7C4F8984E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1038225" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9D6642-F2EE-4954-A812-7601AFED1D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1038225" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF778853-7100-4BC5-AE4E-BEC701DA458E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1038225" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E013778-1000-44EC-87F4-54FE35F5C733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1028700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51E02C7-04B6-4DC6-A9D0-DACEBA70432A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2857500"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各ステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2016F7-9795-437C-82FD-7911F7D8C841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3810000"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポーズ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754A7B63-D559-4906-878E-DFCCAF7C4B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="3028950"/>
+          <a:ext cx="1028700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E995B3-39CE-4227-9A8C-B70E90A5685B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6115050" y="3019425"/>
+          <a:ext cx="742950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AC164B-B6E8-43E0-9034-645A2E03D2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515225" y="3181350"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297DA520-4D14-4DD3-9D72-A9074F9B7F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7515225" y="3181350"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F474D676-EAA8-4498-98D6-A3D4DE0E6355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6124576" y="3971924"/>
+          <a:ext cx="733425" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAC042C-577C-48C5-8A78-A8C5A03E2D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6124575" y="3971925"/>
+          <a:ext cx="733425" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3482AC7-6500-4635-BB93-CB8B605D7BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4917281" y="1535907"/>
+          <a:ext cx="942975" cy="4252912"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -118182"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228BCBDC-52BA-4968-8038-F1F904C7ABB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="2867025"/>
+          <a:ext cx="1314450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF20D08C-06C0-4B2A-8800-994F4E766515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8058150" y="3181350"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD08702-2C68-4A4C-AFA3-1308DA366EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="3019425"/>
+          <a:ext cx="742950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D44D977-4679-4F01-A394-5AF63BAAA0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858000" y="3019425"/>
+          <a:ext cx="3371850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6780"/>
+            <a:gd name="adj2" fmla="val 4200000"/>
+            <a:gd name="adj3" fmla="val 106780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="コネクタ: カギ線 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97D4127-FAA5-4017-9517-8C447E66A299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="2076450"/>
+          <a:ext cx="5429250" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4211"/>
+            <a:gd name="adj2" fmla="val -3150000"/>
+            <a:gd name="adj3" fmla="val 104211"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="コネクタ: カギ線 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB776C20-8AAC-47FE-8064-7E5047524D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6124575" y="3028950"/>
+          <a:ext cx="4105275" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="コネクタ: カギ線 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C4DD96-3D9A-4860-889F-9054AE169581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6124575" y="3028950"/>
+          <a:ext cx="4105275" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="コネクタ: カギ線 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D95345-FAD0-4ECB-9D5A-A4892FD383F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="3"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6124575" y="3028950"/>
+          <a:ext cx="4105275" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1995,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2082,10 +3897,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="36">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -2097,8 +3912,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -2858,6 +4673,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892DB99E-9BE3-427E-A851-3B219A7F1D2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -3021,7 +4853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
@@ -3108,22 +4940,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.4666666666666666</v>
+        <v>1.4193548387096775</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.1282051282051282</v>
+        <v>1.0476190476190477</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3153,7 +4985,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3209,19 +5041,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.3225806451612905</v>
+        <v>3.4333333333333331</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.4523809523809526</v>
+        <v>2.641025641025641</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3243,19 +5075,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.0196078431372548</v>
+        <v>2.06</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.4714285714285715</v>
+        <v>1.5373134328358209</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3277,19 +5109,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6612903225806452</v>
+        <v>1.6885245901639345</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.1839080459770115</v>
+        <v>1.2261904761904763</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3901,7 +5733,7 @@
       <c r="A64" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="33">
         <v>2</v>
       </c>
       <c r="C64">
@@ -4260,7 +6092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4416D-9062-4DAF-A047-57AB4A8BE771}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4275,7 +6107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D2C22-999A-42D4-BD4F-8D4FC0E5041D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4291,6 +6123,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -4525,16 +6366,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4551,12 +6391,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16E22B-FA4B-4EFB-BB13-E812DEB29813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196C771-A9A9-4529-9030-794737E3DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="705" windowWidth="22605" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1966,6 +1966,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2033,6 +2039,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2100,6 +2112,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2167,6 +2184,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2639,6 +2662,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3104,6 +3133,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4677,7 +4712,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4940,22 +4975,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.4193548387096775</v>
+        <v>1.375</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0476190476190477</v>
+        <v>1.0232558139534884</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4985,7 +5020,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5041,19 +5076,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.4333333333333331</v>
+        <v>3.5517241379310347</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.641025641025641</v>
+        <v>2.7105263157894739</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5075,19 +5110,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.06</v>
+        <v>2.1020408163265305</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5373134328358209</v>
+        <v>1.5606060606060606</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5109,19 +5144,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6885245901639345</v>
+        <v>1.7166666666666666</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2261904761904763</v>
+        <v>1.2409638554216869</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196C771-A9A9-4529-9030-794737E3DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAD8DA-2485-499F-AE1D-BFDA287D75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="705" windowWidth="22605" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="705" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="159">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1387,6 +1387,48 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移の基盤作成</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>キバンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UE5のFBXエクスポートと実験をした。利用規約を無視していいならたぶん行ける</t>
+    <rPh sb="14" eb="16">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>リヨウキヤク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移実装完了。利用規約無視していいらしいからモデルを買ってじっそうしたいなあ。</t>
+    <rPh sb="3" eb="7">
+      <t>センイジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>リヨウキヤクムシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3845,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4129,7 +4171,9 @@
         <v>45606</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4140,7 +4184,9 @@
         <v>45607</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4151,7 +4197,9 @@
         <v>45608</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4711,7 +4759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892DB99E-9BE3-427E-A851-3B219A7F1D2F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAD8DA-2485-499F-AE1D-BFDA287D75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CABC9C-A8A1-49C3-995A-FE5F5125B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="705" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="6720" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1429,6 +1429,25 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリリークの解決。安田に教えるときにMV1CollResultPolyDimTerminateをコメント化してそのままなのが原因。</t>
+    <rPh sb="7" eb="9">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤスダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3887,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4210,7 +4229,9 @@
         <v>45609</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5023,22 +5044,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.375</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0232558139534884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5068,7 +5089,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45608</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5124,19 +5145,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.5517241379310347</v>
+        <v>3.6785714285714284</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.7105263157894739</v>
+        <v>2.7837837837837838</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5158,19 +5179,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1020408163265305</v>
+        <v>2.1458333333333335</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5606060606060606</v>
+        <v>1.5846153846153845</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5192,19 +5213,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7166666666666666</v>
+        <v>1.7457627118644068</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2409638554216869</v>
+        <v>1.2560975609756098</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CABC9C-A8A1-49C3-995A-FE5F5125B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE63F05-17FD-4A09-94DC-4EE5437D999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="6720" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2550" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -1433,7 +1433,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモリリークの解決。安田に教えるときにMV1CollResultPolyDimTerminateをコメント化してそのままなのが原因。</t>
+    <t>メモリリークの解決。安田に教えるときにMV1CollResultPolyDimTerminateをコメント化してそのままなのが原因。
+Physicsのオブジェクト同士の当たり判定を計算する前にすでに試したペアじゃないかどうか、オブジェクト間の距離が離れすぎていないか計算するように</t>
     <rPh sb="7" eb="9">
       <t>カイケツ</t>
     </rPh>
@@ -1448,6 +1449,33 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4224,12 +4252,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" ht="37.5">
       <c r="B25" s="15">
         <v>45609</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>159</v>
       </c>
       <c r="E25" s="13">
@@ -4797,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4961,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5020,7 +5048,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>114</v>
@@ -5051,7 +5079,7 @@
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.3333333333333333</v>
+        <v>1.4242424242424243</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
@@ -5059,7 +5087,7 @@
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1</v>
+        <v>1.0681818181818181</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5149,7 +5177,7 @@
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.6785714285714284</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
@@ -5157,7 +5185,7 @@
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.7837837837837838</v>
+        <v>2.7027027027027026</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5183,7 +5211,7 @@
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1458333333333335</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
@@ -5191,7 +5219,7 @@
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5846153846153845</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5217,7 +5245,7 @@
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7457627118644068</v>
+        <v>1.6949152542372881</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
@@ -5225,7 +5253,7 @@
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2560975609756098</v>
+        <v>1.2195121951219512</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5279,8 +5307,8 @@
       <c r="B16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>86</v>
+      <c r="D16" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5307,8 +5335,8 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>86</v>
+      <c r="D18" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE63F05-17FD-4A09-94DC-4EE5437D999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8965B9-7488-4CF4-A624-868156F3FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2550" windowWidth="22605" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1476,6 +1476,342 @@
     </rPh>
     <rPh sb="133" eb="135">
       <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵について</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵それぞれに、ほかのオブジェクトとの当たり判定、ヘッドショット判定、策定判定を持たせるのは結構重くなりそう。敵をたくさん出したいゲームだからなおさら。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>サクテイハンテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれに索敵範囲を持たせるのではなく、1~3人を群れとして群れの中心座標から索敵範囲を出す？</t>
+    <rPh sb="5" eb="9">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>チュウシンザヒョウ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→群れの索敵範囲に入ったらそれぞれが索敵範囲を出すようにして、群れ全員のそれぞれの索敵範囲からプレイヤーが外れたら群れの範囲に戻る</t>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れクラス</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どの敵が群れのメンバーなのか管理</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れクラス自体にもtirggerの球体当たり判定を持っておいて中心座標はメンバーの平均座標、半径は最も遠いメンバーまでの距離+αの大きさ</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キュウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>チュウシンザヒョウ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ヘイキンザヒョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回はそれぞれがルートに沿って移動していたが、今回は群れとしてルートを移動する</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後はそれぞれの判定に沿って行動を決める</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員の索敵範囲外に出ていたらまた群れとしての動きに変わり、群れの索敵判定を生成する。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>サクテキハンイガイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>サクテキハンテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れクラスの当たり判定に当たったらメンバーにそれぞれ索敵範囲を作るように要請し、群れクラスの当たり判定は削除する</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>サクテキハンイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵判定について</t>
+    <rPh sb="0" eb="4">
+      <t>サクテキハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッドショット判定について</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが向いている方向と、群れクラスの当たり判定でレイキャストして、当たっていたらメンバーにヘッドショット判定を出すように要請。</t>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たっていなかったら、ヘッドショット判定を消しておくように要請する</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1522,7 +1858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +1946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,7 +2073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1802,6 +2144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3664,6 +4007,979 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167053</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>636709</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>203690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104A2001-E182-408E-8466-0144F9267558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="855784" y="11885736"/>
+          <a:ext cx="1158387" cy="1132742"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622790</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203423</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7815FA-6445-4F5C-9A94-1C8EB9A3400F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311521" y="12347331"/>
+          <a:ext cx="269364" cy="536179"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>613264</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>61547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236570</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>96690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C02FCA-C15B-41E7-9A70-EF2E248E8EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1301995" y="12150970"/>
+          <a:ext cx="312037" cy="276932"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279156</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>67408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60081</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>232997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1660B44-5C8F-45CD-88B5-520276CBA238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1656618" y="11915043"/>
+          <a:ext cx="1158386" cy="1132742"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38834</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308198</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61818698-E397-4BF5-AC59-68C96BE21A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105026" y="12347331"/>
+          <a:ext cx="269364" cy="536179"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326691</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>125998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF72AFBD-5DB7-4A88-91AE-0D36AB2CB04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2083777" y="12180278"/>
+          <a:ext cx="309106" cy="276932"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>427893</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205887</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>241788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1170CE63-487E-4E8E-BB8B-3F9FAB8486C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2494085" y="11923834"/>
+          <a:ext cx="1155456" cy="1132742"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>191967</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>241055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464261</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE6936E-A16C-4957-8018-A0C5ECAF5606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946890" y="12330478"/>
+          <a:ext cx="272294" cy="532516"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163391</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>121627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475427</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4FF683-2D0D-4806-8F08-A261A067DB2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2918314" y="12211050"/>
+          <a:ext cx="312036" cy="280595"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181708</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451072</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>67256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ECEA81-C174-4597-9043-2928D01F6169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314093" y="12345865"/>
+          <a:ext cx="269364" cy="536179"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172182</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484219</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5248B128-3AD0-4A29-AEC9-ACB0E7FD5A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4304567" y="12149504"/>
+          <a:ext cx="312037" cy="276932"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>645502</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226136</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>235775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB34D0D7-068B-4270-A321-99B14EAE36FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4777887" y="12272596"/>
+          <a:ext cx="269364" cy="536179"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624253</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>16120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244629</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>51263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B6A598-9DF3-44DE-A13C-7AB99B6CB1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4756638" y="12105543"/>
+          <a:ext cx="309106" cy="276932"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439617</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>239590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23180</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C3D8F9-F3E3-47A5-B453-A68271AC0C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260732" y="12329013"/>
+          <a:ext cx="272294" cy="532516"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411041</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>120162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34346</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82574DD-0900-4866-9137-CFF53E3CCDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5232156" y="12209585"/>
+          <a:ext cx="312036" cy="280595"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>499696</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>110414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C873723-7867-459C-A910-D9F1314142D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="11607310"/>
+          <a:ext cx="1837592" cy="1801469"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3934,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4823,10 +6139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4975,6 +6291,81 @@
         <v>154</v>
       </c>
     </row>
+    <row r="47" spans="1:1" s="30" customFormat="1">
+      <c r="A47" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="38" customFormat="1">
+      <c r="A49" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="38" customFormat="1">
+      <c r="A70" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4982,6 +6373,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5072,22 +6464,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.4242424242424243</v>
+        <v>1.3823529411764706</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0681818181818181</v>
+        <v>1.0444444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5117,7 +6509,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45609</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5173,19 +6565,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.5714285714285716</v>
+        <v>3.7037037037037037</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.7027027027027026</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5207,19 +6599,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.0833333333333335</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5384615384615385</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5241,19 +6633,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6949152542372881</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2195121951219512</v>
+        <v>1.2345679012345678</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8965B9-7488-4CF4-A624-868156F3FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498CADE0-3486-4254-9E6F-4E88ACE97E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1812,6 +1812,88 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定は常に出しておいて地形との当たり判定や、ほかオブジェクトとの当たり判定、トラップからの被弾判定ができる</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ヒダンハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上の二つで判定を追加したり削除したりを動的にすることで処理を軽くできるか見てみたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なこと</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れクラスの実装</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2132,6 +2214,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2144,7 +2227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5337,10 +5419,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -5352,8 +5434,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="35"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -6139,10 +6221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6301,8 +6383,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="38" customFormat="1">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:3" s="34" customFormat="1">
+      <c r="A49" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6351,8 +6433,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="38" customFormat="1">
-      <c r="A70" s="38" t="s">
+    <row r="70" spans="1:3" s="34" customFormat="1">
+      <c r="A70" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6364,6 +6446,26 @@
     <row r="72" spans="1:3">
       <c r="C72" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498CADE0-3486-4254-9E6F-4E88ACE97E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20D0DF-DE95-434B-85C1-819B45764118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -6223,7 +6223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
@@ -6483,8 +6483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
         <v>114</v>
@@ -6566,22 +6566,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.3823529411764706</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0444444444444445</v>
+        <v>1.0869565217391304</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45610</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6667,19 +6667,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.7037037037037037</v>
+        <v>3.7307692307692308</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.7777777777777777</v>
+        <v>2.7714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6701,19 +6701,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1276595744680851</v>
+        <v>2.1086956521739131</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5625</v>
+        <v>1.5396825396825398</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6735,19 +6735,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7241379310344827</v>
+        <v>1.7017543859649122</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2345679012345678</v>
+        <v>1.2124999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6943,8 +6943,8 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>86</v>
+      <c r="D27" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6954,8 +6954,8 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>86</v>
+      <c r="D28" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20D0DF-DE95-434B-85C1-819B45764118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400D77F-BED4-4592-AD3D-E3065BBB80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16125" yWindow="3390" windowWidth="21420" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1894,6 +1894,78 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の当たり判定数をなるべく減らすために群れ機能を考えた。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハンテイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PhysicsやCollidableを結構変えた。自身に複数の当たり判定があるとき、どの当たり判定に何が当たったかを判定できるようにした。
+けど、On〇〇Enterが一番外側の判定が当たった時にしか呼ばれなくて、索敵範囲外から矢を撃っても敵にダメージが入らなくなってしまった。</t>
+    <rPh sb="19" eb="22">
+      <t>ケッコウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>イチバンソトガワ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="106" eb="111">
+      <t>サクテキハンイガイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2155,7 +2227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2213,7 +2285,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5332,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5419,10 +5490,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -5434,8 +5505,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -5668,18 +5739,22 @@
         <v>45610</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" ht="37.5">
       <c r="B27" s="15">
         <v>45611</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6383,8 +6458,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="34" customFormat="1">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:3" s="33" customFormat="1">
+      <c r="A49" s="33" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6433,8 +6508,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="34" customFormat="1">
-      <c r="A70" s="34" t="s">
+    <row r="70" spans="1:3" s="33" customFormat="1">
+      <c r="A70" s="33" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6483,7 +6558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -6577,11 +6652,11 @@
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0869565217391304</v>
+        <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6611,7 +6686,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45611</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6667,19 +6742,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.7307692307692308</v>
+        <v>3.88</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.7714285714285714</v>
+        <v>2.9393939393939394</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6701,19 +6776,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1086956521739131</v>
+        <v>2.1555555555555554</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5396825396825398</v>
+        <v>1.5901639344262295</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6735,19 +6810,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7017543859649122</v>
+        <v>1.7321428571428572</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2124999999999999</v>
+        <v>1.2435897435897436</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7359,7 +7434,7 @@
       <c r="A64" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
@@ -7749,15 +7824,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -7992,15 +8058,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8017,4 +8084,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400D77F-BED4-4592-AD3D-E3065BBB80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30606B-9DBC-4624-96FA-AB9C4DB2C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="3390" windowWidth="21420" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16125" yWindow="3390" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="220">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1966,6 +1966,452 @@
     </rPh>
     <rPh sb="126" eb="127">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダーを使えそうな部分を考えた。</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルを買って、UEからfbxでエキスポートしてみた。もともと入っていたアニメーションを使うか、mixamoのアニメーションを使うか検討しよう。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の移動と攻撃を実装してみた。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしくは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢に二つの当たり判定をのっけて、黄色い当たり判定にあたった敵のヘッドショット判定を出現させる？</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢はたくさん撃つ想定だからあまり実用的ではないかも~</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジツヨウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダーについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダーが使えそうな表現</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡した敵が消える表現(授業でやったディゾルブ的な)</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マップの壁に壁かけ松明的なのを設置してその周りを少し明るくするライティング系</t>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイマツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・落下死亡判定がある地形の水面表現(右の感じ。もうちょい普通の海的なイメージ)</t>
+    <rPh sb="1" eb="7">
+      <t>ラッカシボウハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>スイメンヒョウゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ウミテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モデル周りのシェーダー？(輪郭線やトゥーンなど)</t>
+    <rPh sb="4" eb="5">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>リンカクセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 屈折と反射を組み合わせたシェーダー</t>
+  </si>
+  <si>
+    <t>クリスタルに透明感を持たせつつ、周囲の光やオブジェクトを反射・屈折するようにシェーダーを作ることで、豪華でリアルな見た目を演出できます。スクリーンスペースリフレクション（SSR）を活用して反射を再現するのも効果的です。</t>
+  </si>
+  <si>
+    <t>2. カスタムグリッタリング効果</t>
+  </si>
+  <si>
+    <t>クリスタル表面に特定の角度でのみ輝きやきらめきを生じるようにし、プレイヤーの視点や光源の位置に応じて変化するグリッタリングエフェクトを加えると、神秘的な雰囲気を出せます。</t>
+  </si>
+  <si>
+    <t>3. 内側からの発光</t>
+  </si>
+  <si>
+    <t>クリスタルの中心部から外側に向けてグラデーション的に光を放つようなエミッシブ効果を組み込むと、神秘的で高級感を出せます。タイミングやイベントに応じて発光の強さを変化させることで、さらに動的な演出も可能です。</t>
+  </si>
+  <si>
+    <t>クリスタルの表面を通るエネルギーの流れや輝きが見えるように、ノイズテクスチャを利用して時間とともに変化する模様を作ると、常に動きを感じさせる豪華な外観に仕上がります。</t>
+  </si>
+  <si>
+    <r>
+      <t>概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: クリスタルに透明な素材を作り、周囲の環境を反射・屈折する効果を与えることでリアルな見た目を実現します。屈折効果を利用して奥行き感を出し、反射効果でクリスタルの表面に周囲の環境が映り込むようにします。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>実装方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>透明なマテリアルを作成し、屈折インデックスを指定します（Unityなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マテリアルを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transparent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に設定して屈折を調整）。</t>
+    </r>
+  </si>
+  <si>
+    <t>環境マップやスクリーンスペースリフレクションを使って反射をシミュレート。</t>
+  </si>
+  <si>
+    <t>物理ベースレンダリング（PBR）を活用し、リアルな光の反射を演出。</t>
+  </si>
+  <si>
+    <r>
+      <t>概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 表面にランダムな輝きや星のようなきらめきを表示することで、クリスタルの豪華さを引き立てます。</t>
+    </r>
+  </si>
+  <si>
+    <t>法線ベクトルを使用して、特定の角度でのみ反射や輝きを発生させるカスタムシェーダーを作ります。</t>
+  </si>
+  <si>
+    <t>ランダムなノイズテクスチャを加えて、きらめきの場所や強さを変化させるとより動的になります。</t>
+  </si>
+  <si>
+    <t>シェーダーグラフで条件分岐を用い、ライティングの強さに応じて輝きの強度を調整可能。</t>
+  </si>
+  <si>
+    <r>
+      <t>概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: クリスタルの内部から光を放つように見せるエフェクトを作ります。これにより、特に暗い環境で美しい発光が際立ちます。</t>
+    </r>
+  </si>
+  <si>
+    <t>エミッシブ（発光）プロパティを持つマテリアルを使用。発光の色や強さを調整可能。</t>
+  </si>
+  <si>
+    <t>内側からのグラデーション発光を作るために、カスタムベクトルを使ってクリスタル内部の中心から外側にかけてエミッシブ効果を設定する。</t>
+  </si>
+  <si>
+    <r>
+      <t>時間ベースの変化を加えるために</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sin()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cos()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用し、周期的に発光を変化させることもできます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: クリスタル表面にエネルギーの流れや輝きを演出するためにノイズテクスチャを使用します。</t>
+    </r>
+  </si>
+  <si>
+    <t>ノイズテクスチャをタイム変数と組み合わせて、表面に動的な模様を生成。</t>
+  </si>
+  <si>
+    <t>アニメーションでテクスチャのオフセットを変化させ、エネルギーが流れるような動きを再現。</t>
+  </si>
+  <si>
+    <t>シェーダーグラフを使い、時間の経過に応じて色や輝きの変化をリアルタイムにコントロール可能。</t>
+  </si>
+  <si>
+    <t>・クリスタル周りを派手に見せるためのシェーダー？</t>
+    <rPh sb="6" eb="7">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. ノイズテクスチャを使った動的変化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あまりにも実装できるかわからんが下の案など</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1979,7 +2425,7 @@
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,6 +2456,12 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2227,7 +2679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2298,6 +2750,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4167,6 +4628,66 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014072C6-40E7-2AE1-A35F-D87D9F573F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="17706975"/>
+          <a:ext cx="1943100" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5133,6 +5654,187 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75FB4AF-23FE-A9CF-633D-1315867DB7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="17926050"/>
+          <a:ext cx="3457575" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E68F5AB-3F44-69AB-49D4-970F40ADB7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="18126075"/>
+          <a:ext cx="1466850" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>20490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFC043B-6A47-46EE-AF16-07948E5397A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="21451740"/>
+          <a:ext cx="4943475" cy="2779859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5403,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5765,7 +6467,9 @@
         <v>45612</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5776,7 +6480,9 @@
         <v>45613</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5787,7 +6493,9 @@
         <v>45614</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6296,10 +7004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6493,54 +7201,258 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:10">
       <c r="B66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:10">
       <c r="B67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:10">
       <c r="B68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="33" customFormat="1">
+    <row r="70" spans="1:10" s="33" customFormat="1">
       <c r="A70" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:10">
       <c r="B71" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:10">
       <c r="C72" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+    <row r="74" spans="1:10">
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="I76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="J77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="B76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="30" customFormat="1">
+      <c r="A89" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="38"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="38"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="38"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6558,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6617,7 +7529,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="J3" t="s">
         <v>114</v>
@@ -6641,22 +7553,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.4285714285714286</v>
+        <v>1.3648648648648649</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.0416666666666667</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6686,7 +7598,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45613</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6742,19 +7654,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.88</v>
+        <v>4.020833333333333</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>2.9393939393939394</v>
+        <v>3.1129032258064515</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6776,19 +7688,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1555555555555554</v>
+        <v>2.1931818181818183</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.5901639344262295</v>
+        <v>1.6355932203389831</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6810,19 +7722,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7321428571428572</v>
+        <v>1.7545454545454546</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2435897435897436</v>
+        <v>1.2697368421052631</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7040,8 +7952,8 @@
       <c r="B29">
         <v>0.5</v>
       </c>
-      <c r="D29" t="s">
-        <v>86</v>
+      <c r="D29" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7824,6 +8736,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -8058,16 +8979,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8084,12 +9004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30606B-9DBC-4624-96FA-AB9C4DB2C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B65E5-C895-4BE7-90BB-785841FF6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="3390" windowWidth="21420" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -2738,6 +2738,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2749,15 +2758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6192,10 +6192,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="39">
         <v>15.5</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -6207,8 +6207,8 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="35"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="26" t="s">
         <v>112</v>
       </c>
@@ -7006,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R110" sqref="R110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7307,151 +7307,151 @@
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="35" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="35" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="36" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="36" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="36" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="38"/>
+      <c r="B111" s="34"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="35" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="34" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="35" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="36" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="40" t="s">
+      <c r="B117" s="36" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="36" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="38"/>
+      <c r="B119" s="34"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="35" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="34" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="36" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="40" t="s">
+      <c r="B126" s="36" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="38"/>
+      <c r="B127" s="34"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="35" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="34" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="35" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="36" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="36" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="36" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8732,6 +8732,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B65E5-C895-4BE7-90BB-785841FF6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686859A2-020B-484A-908F-37ECBAD8E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -2412,6 +2412,77 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定をとるときにrigidbodyの座標を見ていたのをそれぞれの当たり判定の中心座標を見るように変えようとしたけど、面倒で後回し。スパイクトラップの設置だけできるようになった。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>チュウシンザヒョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>アトマワ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの当たり判定にローカル座標を作って、19日に諦めたのを実装できたため、ヘッドショット判定を作ることができた。</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6105,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6506,7 +6577,9 @@
         <v>45615</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6528,7 +6601,9 @@
         <v>45617</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7006,7 +7081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R110" sqref="R110"/>
     </sheetView>
   </sheetViews>
@@ -7553,22 +7628,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.3648648648648649</v>
+        <v>1.2948717948717949</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>1.01</v>
+        <v>0.97115384615384615</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7598,7 +7673,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45615</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7654,19 +7729,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>4.020833333333333</v>
+        <v>4.3863636363636367</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>3.1129032258064515</v>
+        <v>3.3275862068965516</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7688,19 +7763,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.1931818181818183</v>
+        <v>2.2976190476190474</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.6355932203389831</v>
+        <v>1.6929824561403508</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7722,19 +7797,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7545454545454546</v>
+        <v>1.820754716981132</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.2697368421052631</v>
+        <v>1.3040540540540539</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8737,15 +8812,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -8980,15 +9046,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9005,4 +9072,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686859A2-020B-484A-908F-37ECBAD8E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D3A5C-4508-4755-B5B7-1760E791BC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="218">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1775,129 +1775,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが向いている方向と、群れクラスの当たり判定でレイキャストして、当たっていたらメンバーにヘッドショット判定を出すように要請。</t>
-    <rPh sb="15" eb="16">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たっていなかったら、ヘッドショット判定を消しておくように要請する</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たり判定は常に出しておいて地形との当たり判定や、ほかオブジェクトとの当たり判定、トラップからの被弾判定ができる</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チケイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ヒダンハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上の二つで判定を追加したり削除したりを動的にすることで処理を軽くできるか見てみたい。</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドウテキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要なこと</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>群れクラスの実装</t>
-    <rPh sb="0" eb="1">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の当たり判定数をなるべく減らすために群れ機能を考えた。</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -2014,60 +1891,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もしくは、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢に二つの当たり判定をのっけて、黄色い当たり判定にあたった敵のヘッドショット判定を出現させる？</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢はたくさん撃つ想定だからあまり実用的ではないかも~</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジツヨウテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2484,6 +2307,80 @@
     <rPh sb="49" eb="50">
       <t>ツク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れクラスの当たり判定を利用する</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①まず矢と群れクラスの当たり判定をとる</t>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②当たっていたら群れメンバーにヘッドショット判定を出す準備をしてもらう</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③あとはそれぞれの索敵判定に矢が当たっていたらヘッドショット判定を出すようにする</t>
+    <rPh sb="9" eb="13">
+      <t>サクテキハンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4702,66 +4599,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014072C6-40E7-2AE1-A35F-D87D9F573F44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1114425" y="17706975"/>
-          <a:ext cx="1943100" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>167053</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -5727,137 +5564,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75FB4AF-23FE-A9CF-633D-1315867DB7C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="17926050"/>
-          <a:ext cx="3457575" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矢印: 右 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E68F5AB-3F44-69AB-49D4-970F40ADB7A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="18126075"/>
-          <a:ext cx="1466850" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5906,6 +5612,1332 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>367812</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>637176</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>65792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE19EDE-CC71-4FFD-B0A3-F7BFE42070FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425212" y="19301314"/>
+          <a:ext cx="269364" cy="528853"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145806</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>181709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>234311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D16622-DA6E-46F8-9DB2-F1EDFCCE0544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889006" y="19231709"/>
+          <a:ext cx="266434" cy="528852"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>625721</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209284</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>45277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F29436-82D1-4220-9F52-97964AEAEEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368921" y="19288126"/>
+          <a:ext cx="269363" cy="521526"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>108950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D9D2C5-4F20-44D7-BFFC-AC5C6DFB7F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="18573750"/>
+          <a:ext cx="1828800" cy="1775825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矢印: 右 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129CDE6F-295A-464B-8498-9AC196FCDE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="18964275"/>
+          <a:ext cx="714375" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514305</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: 曲線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76F7B1A-88F1-46B7-941A-37D35367A196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="2504319" y="18641135"/>
+          <a:ext cx="534867" cy="400095"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42740"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65898</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>118698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: 曲線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82C1CC2-7396-45D5-9BE7-123F68B117EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2935875" y="18609675"/>
+          <a:ext cx="594948" cy="523098"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38424"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277644</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>14657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="コネクタ: 曲線 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5395E9C0-C3E3-4F38-B74B-7949F62803EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2750869" y="18794681"/>
+          <a:ext cx="490906" cy="49045"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46567"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367812</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>637176</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>65792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="楕円 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040DC87B-DBC6-44B3-A5A0-445852262FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425212" y="19301314"/>
+          <a:ext cx="269364" cy="528853"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145806</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>181709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>234311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="楕円 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CF3C0B-D91D-4770-A292-0D27CFFD219C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889006" y="19231709"/>
+          <a:ext cx="266434" cy="528852"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>625721</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209284</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>45277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F6C7C5-C4BD-40B4-BE3D-C6F307578844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368921" y="19288126"/>
+          <a:ext cx="269363" cy="521526"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>108950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="楕円 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02272EC9-C8F7-405D-A231-F30BA7548575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="18573750"/>
+          <a:ext cx="1828800" cy="1775825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矢印: 右 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91AB68F-4A9D-4A18-A054-527CF3410BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="18983325"/>
+          <a:ext cx="714375" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65209</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>103311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>534865</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>30775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="楕円 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB73EC1-7FF7-45C4-A6C0-E2925EA25E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9666409" y="18915186"/>
+          <a:ext cx="1155456" cy="1118089"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520946</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>81329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101579</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="楕円 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD8F7EE-C06A-467F-8AA6-772D4837E2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10122146" y="19369454"/>
+          <a:ext cx="266433" cy="528853"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>126757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134726</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="楕円 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97501730-DA3B-4739-AE3D-DAC3CD47CE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10112620" y="19176757"/>
+          <a:ext cx="309106" cy="273268"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177312</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>132618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>644037</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>60082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09315A3-468F-4DDD-8175-AF4638319FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464312" y="18944493"/>
+          <a:ext cx="1152525" cy="1118089"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>622790</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>81329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206354</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="楕円 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE71CC27-A139-4BCE-A477-6348ABF07BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10909790" y="19369454"/>
+          <a:ext cx="269364" cy="528853"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>326049</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>141409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104043</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="楕円 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6B300D-4BB6-43CE-80E1-8E70E41C0B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11298849" y="18953284"/>
+          <a:ext cx="1149594" cy="1118089"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90123</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>362417</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>113416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="楕円 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26610E9-498B-4BBA-8308-6EC3E43AF47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11748723" y="19356265"/>
+          <a:ext cx="272294" cy="521526"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="楕円 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF868FD-31F7-4038-B1AC-3518B806A8D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="18335625"/>
+          <a:ext cx="2343150" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矢印: 右 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF81C01F-202F-4FDA-A57F-8C312197E6C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="19050000"/>
+          <a:ext cx="714375" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6176,7 +7208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -6513,7 +7545,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
@@ -6526,7 +7558,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
@@ -6539,7 +7571,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
@@ -6552,7 +7584,7 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
@@ -6565,7 +7597,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
@@ -6578,7 +7610,7 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="18" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
@@ -6602,7 +7634,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
@@ -7079,10 +8111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R110" sqref="R110"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7276,144 +8308,130 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:15">
       <c r="B66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:15">
       <c r="B67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:15">
       <c r="B68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="33" customFormat="1">
+    <row r="70" spans="1:15" s="33" customFormat="1">
       <c r="A70" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="C72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="I76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="J77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>178</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="C73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="C74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" t="s">
+        <v>129</v>
+      </c>
+      <c r="O77" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="30" customFormat="1">
       <c r="A89" s="30" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="C96" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="35" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="35" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="36" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -7421,37 +8439,37 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="35" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="35" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="35" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="36" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="36" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="36" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="2:2">
@@ -7459,37 +8477,37 @@
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="35" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="34" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="35" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="35" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="36" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="36" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="36" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="2:2">
@@ -7497,37 +8515,37 @@
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="35" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="34" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="35" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="35" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="36" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="36" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="36" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7628,22 +8646,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.2948717948717949</v>
+        <v>1.2625</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>0.97115384615384615</v>
+        <v>0.95283018867924529</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7673,7 +8691,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45617</v>
+        <v>45618</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7729,19 +8747,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>4.3863636363636367</v>
+        <v>4.5952380952380949</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>3.3275862068965516</v>
+        <v>3.4464285714285716</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7763,19 +8781,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.2976190476190474</v>
+        <v>2.3536585365853657</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.6929824561403508</v>
+        <v>1.7232142857142858</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7797,19 +8815,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.820754716981132</v>
+        <v>1.8557692307692308</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.3040540540540539</v>
+        <v>1.321917808219178</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8812,6 +9830,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -9046,16 +10073,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9072,12 +10098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D3A5C-4508-4755-B5B7-1760E791BC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E759D1-FED2-4C49-BF0A-E4BD8B8B2AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日記" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -2381,6 +2381,68 @@
   </si>
   <si>
     <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃の当たり判定を作成。なんか敵の索敵判定とプレイヤーが複数当たっているのか、索敵判定関係が変な挙動をしている。Physicsのどこかが変っぽい。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>サクテキハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>フクスウア</t>
+    </rPh>
+    <rPh sb="41" eb="47">
+      <t>サクテキハンテイカンケイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵索敵判定のバグを修正。プレイヤーと敵の索敵判定が2回登録されていたのが原因だった。</t>
+    <rPh sb="0" eb="5">
+      <t>テキサクテキハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>サクテキハンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイトウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンイン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2530,7 +2592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2642,12 +2704,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2726,6 +2797,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7208,8 +7282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010511F-411A-45D9-B355-96C9DA45960D}">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7646,7 +7720,9 @@
         <v>45618</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="E34" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7668,7 +7744,9 @@
         <v>45620</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="41" t="s">
+        <v>219</v>
+      </c>
       <c r="E36" s="13">
         <f t="shared" ref="E36:E67" si="1">SUM(C36,E35)</f>
         <v>43</v>
@@ -8113,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F800E2CC-DFFD-4323-977B-7958379A5E03}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8646,22 +8724,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="28">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.2625</v>
+        <v>1.2317073170731707</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K4" s="28">
         <f ca="1">G3/J4</f>
-        <v>0.95283018867924529</v>
+        <v>0.9017857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8691,7 +8769,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45618</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8747,19 +8825,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="28">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>4.5952380952380949</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="28">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>3.4464285714285716</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8781,19 +8859,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.3536585365853657</v>
+        <v>2.4125000000000001</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" s="28">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.7232142857142858</v>
+        <v>1.820754716981132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8815,19 +8893,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8557692307692308</v>
+        <v>1.892156862745098</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" s="28">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.321917808219178</v>
+        <v>1.3785714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE32C60-6ACA-4D5E-A482-D40B6D63E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0F400-8ACB-4C0F-A7C1-3F894B0536E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -864,6 +864,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1146,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" activeCellId="3" sqref="B76:B83 B66 B6:B12 B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1194,7 +1197,7 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1218,7 +1221,7 @@
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -1263,7 +1266,7 @@
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -1281,7 +1284,7 @@
       <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="D7" t="s">
@@ -1447,7 +1450,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>2</v>
       </c>
       <c r="C15">
@@ -1461,7 +1464,7 @@
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="18">
         <v>1</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -1472,7 +1475,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="18">
         <v>2</v>
       </c>
       <c r="C17">
@@ -1486,7 +1489,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="18">
         <v>2</v>
       </c>
       <c r="C18">
@@ -1650,7 +1653,7 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="9">
         <v>0.5</v>
       </c>
       <c r="D31" t="s">
@@ -1661,7 +1664,7 @@
       <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="9">
         <v>1</v>
       </c>
       <c r="D32" t="s">
@@ -1672,7 +1675,7 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <v>4</v>
       </c>
       <c r="D33" t="s">
@@ -1716,7 +1719,7 @@
       <c r="A37" t="s">
         <v>87</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="19">
         <v>2</v>
       </c>
       <c r="D37" t="s">
@@ -1727,7 +1730,7 @@
       <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="19">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -1738,7 +1741,7 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="20">
         <v>2</v>
       </c>
       <c r="C39">
@@ -1752,7 +1755,7 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="20">
         <v>0.5</v>
       </c>
       <c r="C40">
@@ -1777,7 +1780,7 @@
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="9">
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -1846,12 +1849,13 @@
       <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="18">
         <v>1</v>
       </c>
       <c r="D49" t="s">
@@ -1862,7 +1866,7 @@
       <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="18">
         <v>2</v>
       </c>
       <c r="D50" t="s">
@@ -1873,7 +1877,7 @@
       <c r="A51" t="s">
         <v>91</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="18">
         <v>2</v>
       </c>
       <c r="D51" t="s">

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\Github\EmploymentWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0F400-8ACB-4C0F-A7C1-3F894B0536E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2479E3-9EF5-4081-9E6C-17D9D48D680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" activeCellId="3" sqref="B76:B83 B66 B6:B12 B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="G3">
         <f>SUMIF(D3:D300,"完了",B3:B300)</f>
-        <v>54.5</v>
+        <v>59.5</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -1232,22 +1232,22 @@
       </c>
       <c r="G4">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="16">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>1.3292682926829269</v>
+        <v>1.3837209302325582</v>
       </c>
       <c r="J4">
         <f ca="1">_xlfn.DAYS(G6,G5)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" s="16">
         <f ca="1">G3/J4</f>
-        <v>0.9732142857142857</v>
+        <v>1.0258620689655173</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="G6" s="17">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1333,19 +1333,19 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="16">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>4.625</v>
+        <v>4.8611111111111107</v>
       </c>
       <c r="J9">
         <f ca="1">_xlfn.DAYS(G9,$G6)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="16">
         <f ca="1">($G$2 - $G$3) / J9</f>
-        <v>3.7</v>
+        <v>3.8043478260869565</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1367,19 +1367,19 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H11" ca="1" si="0">NETWORKDAYS(TODAY(),G10)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" ref="I10:I11" ca="1" si="1">($G$2 - $G$3) / H10</f>
-        <v>2.3125</v>
+        <v>2.3026315789473686</v>
       </c>
       <c r="J10">
         <f ca="1">_xlfn.DAYS(G10,$G$6)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="16">
         <f ca="1">($G$2 - $G$3) / J10</f>
-        <v>1.7452830188679245</v>
+        <v>1.7156862745098038</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1401,19 +1401,19 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8137254901960784</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="J11">
         <f ca="1">_xlfn.DAYS(G11,$G$6)</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="16">
         <f ca="1">($G$2 - $G$3) / J11</f>
-        <v>1.3214285714285714</v>
+        <v>1.286764705882353</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1733,8 +1733,8 @@
       <c r="B38" s="19">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>79</v>
+      <c r="D38" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1858,8 +1858,8 @@
       <c r="B49" s="18">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>79</v>
+      <c r="D49" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1869,8 +1869,8 @@
       <c r="B50" s="18">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>79</v>
+      <c r="D50" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2417,6 +2417,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2651,16 +2660,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D4B94D-3C2D-4C37-8BEA-C78ED4B7865D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2677,12 +2685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01190CBB-BB0C-4724-8D0C-40D036F01BF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>